--- a/capiq_data/in_process_data/IQ103678.xlsx
+++ b/capiq_data/in_process_data/IQ103678.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E7525A-D299-42D6-8AD0-51FE5B2409D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA3871-9020-40A4-B62C-760B7CDDEF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"b10e1d3a-bfb2-4156-8578-09118c4b52ce"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"60080d29-4277-467c-a14c-b82759816701"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>315.93700000000001</v>
+        <v>36.948</v>
       </c>
       <c r="D2">
-        <v>1842.0050000000001</v>
+        <v>864.41800000000001</v>
       </c>
       <c r="E2">
-        <v>1093.19</v>
+        <v>738.31</v>
       </c>
       <c r="F2">
-        <v>976.57399999999996</v>
+        <v>410.5</v>
       </c>
       <c r="G2">
-        <v>4950.8410000000003</v>
+        <v>1716.309</v>
       </c>
       <c r="H2">
-        <v>10071.27</v>
+        <v>4595.268</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2485.0189999999998</v>
+        <v>781.00699999999995</v>
       </c>
       <c r="K2">
-        <v>235.29499999999999</v>
+        <v>659.17700000000002</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-7.0000000000000001E-3</v>
+        <v>-1.579</v>
       </c>
       <c r="N2">
-        <v>1612.3530000000001</v>
+        <v>1362.4839999999999</v>
       </c>
       <c r="O2">
-        <v>5193.3370000000004</v>
+        <v>2565.1320000000001</v>
       </c>
       <c r="P2">
-        <v>2720.3139999999999</v>
+        <v>1440.184</v>
       </c>
       <c r="Q2">
-        <v>33.366</v>
+        <v>29.815999999999999</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4877.933</v>
+        <v>2030.136</v>
       </c>
       <c r="U2">
-        <v>1249.355</v>
+        <v>79.012</v>
       </c>
       <c r="V2">
-        <v>466.10899999999998</v>
+        <v>95.19</v>
       </c>
       <c r="W2">
-        <v>-92.706999999999994</v>
+        <v>-0.65200000000000002</v>
       </c>
       <c r="X2">
-        <v>135.98699999999999</v>
+        <v>44.561</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-464.01499999999999</v>
+        <v>-0.54400000000000004</v>
       </c>
       <c r="AA2">
-        <v>315.93700000000001</v>
+        <v>36.948</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>312.01900000000001</v>
+        <v>114.16500000000001</v>
       </c>
       <c r="D3">
-        <v>1801.962</v>
+        <v>950.94899999999996</v>
       </c>
       <c r="E3">
-        <v>1209.7</v>
+        <v>722.64</v>
       </c>
       <c r="F3">
-        <v>935.96400000000006</v>
+        <v>464.21100000000001</v>
       </c>
       <c r="G3">
-        <v>4856.63</v>
+        <v>1718.0219999999999</v>
       </c>
       <c r="H3">
-        <v>10344.223</v>
+        <v>4643.2110000000002</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2484.1680000000001</v>
+        <v>778.13900000000001</v>
       </c>
       <c r="K3">
-        <v>241.43100000000001</v>
+        <v>617.31299999999999</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1578.9110000000001</v>
+        <v>1305.249</v>
       </c>
       <c r="O3">
-        <v>5245.1620000000003</v>
+        <v>2509.5880000000002</v>
       </c>
       <c r="P3">
-        <v>2725.5990000000002</v>
+        <v>1395.452</v>
       </c>
       <c r="Q3">
-        <v>-500.767</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5099.0609999999997</v>
+        <v>2133.623</v>
       </c>
       <c r="U3">
-        <v>748.58799999999997</v>
+        <v>79.926000000000002</v>
       </c>
       <c r="V3">
-        <v>241.559</v>
+        <v>220.78899999999999</v>
       </c>
       <c r="W3">
-        <v>-90.159000000000006</v>
+        <v>-49.463999999999999</v>
       </c>
       <c r="X3">
-        <v>-291.47699999999998</v>
+        <v>-51.454999999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-102.673</v>
+        <v>-2.3650000000000002</v>
       </c>
       <c r="AA3">
-        <v>312.02</v>
+        <v>114.16500000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>343.05900000000003</v>
+        <v>118.129</v>
       </c>
       <c r="D4">
-        <v>1951.8889999999999</v>
+        <v>943.29</v>
       </c>
       <c r="E4">
-        <v>1250.1949999999999</v>
+        <v>735.53700000000003</v>
       </c>
       <c r="F4">
-        <v>1029.2370000000001</v>
+        <v>468.399</v>
       </c>
       <c r="G4">
-        <v>5073.1329999999998</v>
+        <v>1736.9760000000001</v>
       </c>
       <c r="H4">
-        <v>10620.819</v>
+        <v>4687.5770000000002</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2484.953</v>
+        <v>772.69799999999998</v>
       </c>
       <c r="K4">
-        <v>239.78399999999999</v>
+        <v>539.35500000000002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1657.9259999999999</v>
+        <v>1255.894</v>
       </c>
       <c r="O4">
-        <v>5322.4189999999999</v>
+        <v>2467.5940000000001</v>
       </c>
       <c r="P4">
-        <v>2724.7370000000001</v>
+        <v>1312.0530000000001</v>
       </c>
       <c r="Q4">
-        <v>409.44900000000001</v>
+        <v>-8.6349999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5298.4</v>
+        <v>2219.9830000000002</v>
       </c>
       <c r="U4">
-        <v>1158.037</v>
+        <v>71.290999999999997</v>
       </c>
       <c r="V4">
-        <v>465.63499999999999</v>
+        <v>208.524</v>
       </c>
       <c r="W4">
-        <v>-89.870999999999995</v>
+        <v>-25.858000000000001</v>
       </c>
       <c r="X4">
-        <v>-252.76300000000001</v>
+        <v>-95.878</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>361.70699999999999</v>
+        <v>-3.8719999999999999</v>
       </c>
       <c r="AA4">
-        <v>343.05799999999999</v>
+        <v>118.129</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>299.97899999999998</v>
+        <v>132.41</v>
       </c>
       <c r="D5">
-        <v>1988.181</v>
+        <v>987.52499999999998</v>
       </c>
       <c r="E5">
-        <v>1228.6369999999999</v>
+        <v>768.04700000000003</v>
       </c>
       <c r="F5">
-        <v>1017.14</v>
+        <v>489.78</v>
       </c>
       <c r="G5">
-        <v>4668.3310000000001</v>
+        <v>1762.942</v>
       </c>
       <c r="H5">
-        <v>10430.428</v>
+        <v>4802.2870000000003</v>
       </c>
       <c r="I5">
-        <v>304.83600000000001</v>
+        <v>205.04599999999999</v>
       </c>
       <c r="J5">
-        <v>2484.665</v>
+        <v>782.99599999999998</v>
       </c>
       <c r="K5">
-        <v>234.91</v>
+        <v>442.23099999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1823.2280000000001</v>
+        <v>1264.6759999999999</v>
       </c>
       <c r="O5">
-        <v>5602.2529999999997</v>
+        <v>2473.52</v>
       </c>
       <c r="P5">
-        <v>2788.7</v>
+        <v>1237.008</v>
       </c>
       <c r="Q5">
-        <v>17.245000000000001</v>
+        <v>10.837999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>29369</v>
+        <v>24800</v>
       </c>
       <c r="T5">
-        <v>4828.1750000000002</v>
+        <v>2328.7669999999998</v>
       </c>
       <c r="U5">
-        <v>1175.2819999999999</v>
+        <v>82.129000000000005</v>
       </c>
       <c r="V5">
-        <v>542.697</v>
+        <v>254.142</v>
       </c>
       <c r="W5">
-        <v>-88.462000000000003</v>
+        <v>-25.355</v>
       </c>
       <c r="X5">
-        <v>-306.12900000000002</v>
+        <v>-98.349000000000004</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>326.57</v>
+        <v>-11.055</v>
       </c>
       <c r="AA5">
-        <v>299.97899999999998</v>
+        <v>132.41</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>262.98500000000001</v>
+        <v>99.673000000000002</v>
       </c>
       <c r="D6">
-        <v>1831.72</v>
+        <v>944.94600000000003</v>
       </c>
       <c r="E6">
-        <v>1139.0809999999999</v>
+        <v>657.32799999999997</v>
       </c>
       <c r="F6">
-        <v>931.255</v>
+        <v>474.18400000000003</v>
       </c>
       <c r="G6">
-        <v>5694.1440000000002</v>
+        <v>1719.4870000000001</v>
       </c>
       <c r="H6">
-        <v>11413.362999999999</v>
+        <v>4763.2569999999996</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3972.194</v>
+        <v>766.19299999999998</v>
       </c>
       <c r="K6">
-        <v>203.89400000000001</v>
+        <v>489.48399999999998</v>
       </c>
       <c r="L6">
-        <v>-0.379</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-31.454000000000001</v>
+        <v>-1.8480000000000001</v>
       </c>
       <c r="N6">
-        <v>1606.374</v>
+        <v>1309.307</v>
       </c>
       <c r="O6">
-        <v>6685.8090000000002</v>
+        <v>2408.4929999999999</v>
       </c>
       <c r="P6">
-        <v>4176.0879999999997</v>
+        <v>1255.6769999999999</v>
       </c>
       <c r="Q6">
-        <v>1020.996</v>
+        <v>71.415000000000006</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4727.5540000000001</v>
+        <v>2354.7640000000001</v>
       </c>
       <c r="U6">
-        <v>2196.2779999999998</v>
+        <v>153.54400000000001</v>
       </c>
       <c r="V6">
-        <v>314.55799999999999</v>
+        <v>155.48500000000001</v>
       </c>
       <c r="W6">
-        <v>-96.153999999999996</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>959.16700000000003</v>
+        <v>-9.0809999999999995</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-109.982</v>
+        <v>5.343</v>
       </c>
       <c r="AA6">
-        <v>262.98500000000001</v>
+        <v>99.673000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>291.03399999999999</v>
+        <v>129.18799999999999</v>
       </c>
       <c r="D7">
-        <v>1928.961</v>
+        <v>1012.971</v>
       </c>
       <c r="E7">
-        <v>1237.8499999999999</v>
+        <v>737.38900000000001</v>
       </c>
       <c r="F7">
-        <v>987.77700000000004</v>
+        <v>489.83800000000002</v>
       </c>
       <c r="G7">
-        <v>5300.585</v>
+        <v>1811.135</v>
       </c>
       <c r="H7">
-        <v>11195.392</v>
+        <v>4845.47</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3964.143</v>
+        <v>762.66600000000005</v>
       </c>
       <c r="K7">
-        <v>206.33</v>
+        <v>559.86199999999997</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1621.489</v>
+        <v>1337.1690000000001</v>
       </c>
       <c r="O7">
-        <v>6719.1040000000003</v>
+        <v>2434.0610000000001</v>
       </c>
       <c r="P7">
-        <v>4170.473</v>
+        <v>1322.528</v>
       </c>
       <c r="Q7">
-        <v>-356.78800000000001</v>
+        <v>26.582999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>4476.2879999999996</v>
+        <v>2411.4090000000001</v>
       </c>
       <c r="U7">
-        <v>1839.49</v>
+        <v>180.12700000000001</v>
       </c>
       <c r="V7">
-        <v>293.09199999999998</v>
+        <v>136.648</v>
       </c>
       <c r="W7">
-        <v>-92.067999999999998</v>
+        <v>-51.634999999999998</v>
       </c>
       <c r="X7">
-        <v>-681.65599999999995</v>
+        <v>-12.156000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>232.24700000000001</v>
+        <v>-0.11</v>
       </c>
       <c r="AA7">
-        <v>291.03300000000002</v>
+        <v>129.18799999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>326.86500000000001</v>
+        <v>119.72499999999999</v>
       </c>
       <c r="D8">
-        <v>1980.53</v>
+        <v>998.46</v>
       </c>
       <c r="E8">
-        <v>1160.3440000000001</v>
+        <v>735.46400000000006</v>
       </c>
       <c r="F8">
-        <v>1033.135</v>
+        <v>484.38900000000001</v>
       </c>
       <c r="G8">
-        <v>5284.7150000000001</v>
+        <v>1835.7449999999999</v>
       </c>
       <c r="H8">
-        <v>11024.864</v>
+        <v>4923.3819999999996</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3760.6419999999998</v>
+        <v>782.38300000000004</v>
       </c>
       <c r="K8">
-        <v>410.73700000000002</v>
+        <v>471.05</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1889.6690000000001</v>
+        <v>1280.3119999999999</v>
       </c>
       <c r="O8">
-        <v>6790.36</v>
+        <v>2408.6370000000002</v>
       </c>
       <c r="P8">
-        <v>4171.3789999999999</v>
+        <v>1253.433</v>
       </c>
       <c r="Q8">
-        <v>-180.77099999999999</v>
+        <v>-4.1459999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4234.5039999999999</v>
+        <v>2514.7449999999999</v>
       </c>
       <c r="U8">
-        <v>1658.7190000000001</v>
+        <v>175.98099999999999</v>
       </c>
       <c r="V8">
-        <v>582.87400000000002</v>
+        <v>240.268</v>
       </c>
       <c r="W8">
-        <v>-92.037999999999997</v>
+        <v>-25.7</v>
       </c>
       <c r="X8">
-        <v>-333.86399999999998</v>
+        <v>-176.54</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-280.339</v>
+        <v>1.593</v>
       </c>
       <c r="AA8">
-        <v>326.86599999999999</v>
+        <v>119.72499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>289.11599999999999</v>
+        <v>131.39599999999999</v>
       </c>
       <c r="D9">
-        <v>1966.789</v>
+        <v>1076.692</v>
       </c>
       <c r="E9">
-        <v>1250</v>
+        <v>745.99800000000005</v>
       </c>
       <c r="F9">
-        <v>1000.833</v>
+        <v>536.98900000000003</v>
       </c>
       <c r="G9">
-        <v>5322</v>
+        <v>1917.23</v>
       </c>
       <c r="H9">
-        <v>11361</v>
+        <v>5028.9830000000002</v>
       </c>
       <c r="I9">
-        <v>350</v>
+        <v>224.64500000000001</v>
       </c>
       <c r="J9">
-        <v>3761</v>
+        <v>802.96699999999998</v>
       </c>
       <c r="K9">
-        <v>203</v>
+        <v>424.411</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1473,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1978</v>
+        <v>1248.0920000000001</v>
       </c>
       <c r="O9">
-        <v>7225</v>
+        <v>2548.125</v>
       </c>
       <c r="P9">
-        <v>4166</v>
+        <v>1239.2860000000001</v>
       </c>
       <c r="Q9">
-        <v>12.563000000000001</v>
+        <v>67.134</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>29555</v>
+        <v>25249</v>
       </c>
       <c r="T9">
-        <v>4136</v>
+        <v>2480.8580000000002</v>
       </c>
       <c r="U9">
-        <v>1671</v>
+        <v>243.11500000000001</v>
       </c>
       <c r="V9">
-        <v>569.476</v>
+        <v>303.63200000000001</v>
       </c>
       <c r="W9">
-        <v>-87.74</v>
+        <v>-25.123999999999999</v>
       </c>
       <c r="X9">
-        <v>-313.64699999999999</v>
+        <v>-115.96299999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>20.074000000000002</v>
+        <v>-2.5710000000000002</v>
       </c>
       <c r="AA9">
-        <v>289.11599999999999</v>
+        <v>131.39599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>625</v>
+        <v>113.63800000000001</v>
       </c>
       <c r="D10">
-        <v>1900</v>
+        <v>1051.6479999999999</v>
       </c>
       <c r="E10">
-        <v>1167.722</v>
+        <v>743.13900000000001</v>
       </c>
       <c r="F10">
-        <v>1006</v>
+        <v>501.60899999999998</v>
       </c>
       <c r="G10">
-        <v>5477.4719999999998</v>
+        <v>1924.6679999999999</v>
       </c>
       <c r="H10">
-        <v>11629.437</v>
+        <v>5061.7610000000004</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3761.5920000000001</v>
+        <v>804.31500000000005</v>
       </c>
       <c r="K10">
-        <v>408.24299999999999</v>
+        <v>430.73399999999998</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-2.3740000000000001</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.38300000000000001</v>
       </c>
       <c r="N10">
-        <v>2003.7819999999999</v>
+        <v>1275.057</v>
       </c>
       <c r="O10">
-        <v>7159.9679999999998</v>
+        <v>2489.424</v>
       </c>
       <c r="P10">
-        <v>4169.835</v>
+        <v>1235.049</v>
       </c>
       <c r="Q10">
-        <v>246</v>
+        <v>-16.687999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>4469.4690000000001</v>
+        <v>2572.337</v>
       </c>
       <c r="U10">
-        <v>1917.472</v>
+        <v>226.42699999999999</v>
       </c>
       <c r="V10">
-        <v>234</v>
+        <v>113.623</v>
       </c>
       <c r="W10">
-        <v>-97</v>
+        <v>-0.48799999999999999</v>
       </c>
       <c r="X10">
-        <v>-379</v>
+        <v>-55.484999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-86</v>
+        <v>-2.3479999999999999</v>
       </c>
       <c r="AA10">
-        <v>625</v>
+        <v>113.63800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>276</v>
+        <v>142.04</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>1134.0409999999999</v>
       </c>
       <c r="E11">
-        <v>1220.0139999999999</v>
+        <v>792.13</v>
       </c>
       <c r="F11">
-        <v>1018</v>
+        <v>555.61300000000006</v>
       </c>
       <c r="G11">
-        <v>5499.9979999999996</v>
+        <v>2088.11</v>
       </c>
       <c r="H11">
-        <v>11629.923000000001</v>
+        <v>5247.0240000000003</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3762.0770000000002</v>
+        <v>806.28300000000002</v>
       </c>
       <c r="K11">
-        <v>207.154</v>
+        <v>485.22800000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1878.039</v>
+        <v>1314.2449999999999</v>
       </c>
       <c r="O11">
-        <v>7041.1409999999996</v>
+        <v>2542.1030000000001</v>
       </c>
       <c r="P11">
-        <v>4169.5129999999999</v>
+        <v>1291.511</v>
       </c>
       <c r="Q11">
-        <v>107</v>
+        <v>59.043999999999997</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>4588.7820000000002</v>
+        <v>2704.9209999999998</v>
       </c>
       <c r="U11">
-        <v>2023.86</v>
+        <v>285.471</v>
       </c>
       <c r="V11">
-        <v>209</v>
+        <v>179.21</v>
       </c>
       <c r="W11">
-        <v>-96</v>
+        <v>-52.545000000000002</v>
       </c>
       <c r="X11">
-        <v>-121</v>
+        <v>-27.135000000000002</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>202</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="AA11">
-        <v>276</v>
+        <v>142.04</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>302</v>
+        <v>130.018</v>
       </c>
       <c r="D12">
-        <v>2053</v>
+        <v>1165.3689999999999</v>
       </c>
       <c r="E12">
-        <v>1254.595</v>
+        <v>825.15499999999997</v>
       </c>
       <c r="F12">
-        <v>1060</v>
+        <v>569.69899999999996</v>
       </c>
       <c r="G12">
-        <v>5434.5110000000004</v>
+        <v>2356.556</v>
       </c>
       <c r="H12">
-        <v>11587.047</v>
+        <v>5558.1890000000003</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3762.567</v>
+        <v>1218.0609999999999</v>
       </c>
       <c r="K12">
-        <v>207.43199999999999</v>
+        <v>163.62799999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1692.817</v>
+        <v>1012.635</v>
       </c>
       <c r="O12">
-        <v>6870.527</v>
+        <v>2660.107</v>
       </c>
       <c r="P12">
-        <v>3969.9989999999998</v>
+        <v>1381.6890000000001</v>
       </c>
       <c r="Q12">
-        <v>-62</v>
+        <v>169.74600000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4716.5200000000004</v>
+        <v>2898.0819999999999</v>
       </c>
       <c r="U12">
-        <v>1962.086</v>
+        <v>455.21699999999998</v>
       </c>
       <c r="V12">
-        <v>393</v>
+        <v>216.13300000000001</v>
       </c>
       <c r="W12">
-        <v>-97</v>
+        <v>-25.806000000000001</v>
       </c>
       <c r="X12">
-        <v>-330</v>
+        <v>18.341999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>41</v>
+        <v>3.6469999999999998</v>
       </c>
       <c r="AA12">
-        <v>302</v>
+        <v>130.018</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1240</v>
+        <v>772.06700000000001</v>
       </c>
       <c r="F13">
-        <v>1087</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5873</v>
+        <v>2503.4589999999998</v>
       </c>
       <c r="H13">
-        <v>12149</v>
+        <v>5572.2529999999997</v>
       </c>
       <c r="I13">
-        <v>333</v>
+        <v>219.804</v>
       </c>
       <c r="J13">
-        <v>3763</v>
+        <v>1184.0160000000001</v>
       </c>
       <c r="K13">
-        <v>207</v>
+        <v>121.858</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2130</v>
+        <v>1059.442</v>
       </c>
       <c r="O13">
-        <v>7106</v>
+        <v>2675.299</v>
       </c>
       <c r="P13">
-        <v>3970</v>
+        <v>1305.874</v>
       </c>
       <c r="Q13">
-        <v>-72</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>29979</v>
+        <v>24783</v>
       </c>
       <c r="T13">
-        <v>5043</v>
+        <v>2896.9540000000002</v>
       </c>
       <c r="U13">
-        <v>1890</v>
+        <v>519.88599999999997</v>
       </c>
       <c r="V13">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>-96</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-382</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>271</v>
+        <v>125.402</v>
       </c>
       <c r="D14">
-        <v>2015</v>
+        <v>1185.1199999999999</v>
       </c>
       <c r="E14">
-        <v>1113</v>
+        <v>818.86300000000006</v>
       </c>
       <c r="F14">
-        <v>1035</v>
+        <v>550.86500000000001</v>
       </c>
       <c r="G14">
-        <v>5743</v>
+        <v>2367.3429999999998</v>
       </c>
       <c r="H14">
-        <v>12035</v>
+        <v>5608.9189999999999</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3764</v>
+        <v>1164.923</v>
       </c>
       <c r="K14">
-        <v>205</v>
+        <v>10.504</v>
       </c>
       <c r="L14">
-        <v>-3</v>
+        <v>-100.02500000000001</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-16.853999999999999</v>
       </c>
       <c r="N14">
-        <v>1997</v>
+        <v>940.81500000000005</v>
       </c>
       <c r="O14">
-        <v>6957</v>
+        <v>2563.904</v>
       </c>
       <c r="P14">
-        <v>3969</v>
+        <v>1175.4269999999999</v>
       </c>
       <c r="Q14">
-        <v>-211</v>
+        <v>14.754</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>5078</v>
+        <v>3045.0149999999999</v>
       </c>
       <c r="U14">
-        <v>1679</v>
+        <v>534.64</v>
       </c>
       <c r="V14">
-        <v>355</v>
+        <v>199.80600000000001</v>
       </c>
       <c r="W14">
-        <v>-106</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="X14">
-        <v>-298</v>
+        <v>-120.273</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-125</v>
+        <v>-3.02</v>
       </c>
       <c r="AA14">
-        <v>271</v>
+        <v>125.402</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>287</v>
+        <v>165.16</v>
       </c>
       <c r="D15">
-        <v>2072</v>
+        <v>1253.633</v>
       </c>
       <c r="E15">
-        <v>1130</v>
+        <v>801.01400000000001</v>
       </c>
       <c r="F15">
-        <v>1053</v>
+        <v>624.11699999999996</v>
       </c>
       <c r="G15">
-        <v>5946</v>
+        <v>2484.3310000000001</v>
       </c>
       <c r="H15">
-        <v>12250</v>
+        <v>5714.9719999999998</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3764</v>
+        <v>1183.1130000000001</v>
       </c>
       <c r="K15">
-        <v>202</v>
+        <v>6.782</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2016</v>
+        <v>891.45600000000002</v>
       </c>
       <c r="O15">
-        <v>6935</v>
+        <v>2554.5189999999998</v>
       </c>
       <c r="P15">
-        <v>3966</v>
+        <v>1189.895</v>
       </c>
       <c r="Q15">
-        <v>52</v>
+        <v>125.82899999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>5315</v>
+        <v>3160.453</v>
       </c>
       <c r="U15">
-        <v>1731</v>
+        <v>660.46900000000005</v>
       </c>
       <c r="V15">
-        <v>413</v>
+        <v>288.37299999999999</v>
       </c>
       <c r="W15">
-        <v>-105</v>
+        <v>-76.290000000000006</v>
       </c>
       <c r="X15">
-        <v>-124</v>
+        <v>-78.718999999999994</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-48</v>
+        <v>-0.61799999999999999</v>
       </c>
       <c r="AA15">
-        <v>287</v>
+        <v>165.16</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>326</v>
+        <v>109.396</v>
       </c>
       <c r="D16">
-        <v>2157</v>
+        <v>1242.7139999999999</v>
       </c>
       <c r="E16">
-        <v>1204</v>
+        <v>806.67399999999998</v>
       </c>
       <c r="F16">
-        <v>1111</v>
+        <v>627.101</v>
       </c>
       <c r="G16">
-        <v>6045</v>
+        <v>2510.4659999999999</v>
       </c>
       <c r="H16">
-        <v>12374</v>
+        <v>5718.4939999999997</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3768</v>
+        <v>1149.173</v>
       </c>
       <c r="K16">
-        <v>205</v>
+        <v>6.0629999999999997</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2093</v>
+        <v>1006.1079999999999</v>
       </c>
       <c r="O16">
-        <v>6996</v>
+        <v>2640.1660000000002</v>
       </c>
       <c r="P16">
-        <v>3973</v>
+        <v>1155.2360000000001</v>
       </c>
       <c r="Q16">
-        <v>-70</v>
+        <v>-0.95799999999999996</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5378</v>
+        <v>3078.328</v>
       </c>
       <c r="U16">
-        <v>1661</v>
+        <v>659.51099999999997</v>
       </c>
       <c r="V16">
-        <v>439</v>
+        <v>283.839</v>
       </c>
       <c r="W16">
-        <v>-105</v>
+        <v>-38.792000000000002</v>
       </c>
       <c r="X16">
-        <v>-279</v>
+        <v>-175.58500000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-71</v>
+        <v>-4.5410000000000004</v>
       </c>
       <c r="AA16">
-        <v>326</v>
+        <v>109.396</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>301</v>
+        <v>67.444000000000003</v>
       </c>
       <c r="D17">
-        <v>2188</v>
+        <v>1253.278</v>
       </c>
       <c r="E17">
-        <v>1192</v>
+        <v>807.38</v>
       </c>
       <c r="F17">
-        <v>1107</v>
+        <v>647.52099999999996</v>
       </c>
       <c r="G17">
-        <v>6130</v>
+        <v>2641.3339999999998</v>
       </c>
       <c r="H17">
-        <v>12447</v>
+        <v>5752.5789999999997</v>
       </c>
       <c r="I17">
-        <v>401</v>
+        <v>206.941</v>
       </c>
       <c r="J17">
-        <v>3768</v>
+        <v>1171.5060000000001</v>
       </c>
       <c r="K17">
-        <v>203</v>
+        <v>48.829000000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2137,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2235</v>
+        <v>1050.0820000000001</v>
       </c>
       <c r="O17">
-        <v>7394</v>
+        <v>2684.7159999999999</v>
       </c>
       <c r="P17">
-        <v>3971</v>
+        <v>1220.7950000000001</v>
       </c>
       <c r="Q17">
-        <v>200</v>
+        <v>59.866999999999997</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>30619</v>
+        <v>25005</v>
       </c>
       <c r="T17">
-        <v>5053</v>
+        <v>3067.8629999999998</v>
       </c>
       <c r="U17">
-        <v>1861</v>
+        <v>719.37800000000004</v>
       </c>
       <c r="V17">
-        <v>539</v>
+        <v>327.98200000000003</v>
       </c>
       <c r="W17">
-        <v>-105</v>
+        <v>-37.265999999999998</v>
       </c>
       <c r="X17">
-        <v>-106</v>
+        <v>-132.31399999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>73</v>
+        <v>-33.268000000000001</v>
       </c>
       <c r="AA17">
-        <v>301</v>
+        <v>67.444000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>236</v>
+        <v>195.351</v>
       </c>
       <c r="D18">
-        <v>2051</v>
+        <v>1288.3689999999999</v>
       </c>
       <c r="E18">
-        <v>1031</v>
+        <v>818.14700000000005</v>
       </c>
       <c r="F18">
-        <v>1045</v>
+        <v>653.86800000000005</v>
       </c>
       <c r="G18">
-        <v>12111</v>
+        <v>2815.625</v>
       </c>
       <c r="H18">
-        <v>18503</v>
+        <v>5973.4250000000002</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9940</v>
+        <v>1061.3409999999999</v>
       </c>
       <c r="K18">
-        <v>202</v>
+        <v>108.26300000000001</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>-44.953000000000003</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.35699999999999998</v>
       </c>
       <c r="N18">
-        <v>2081</v>
+        <v>1165.472</v>
       </c>
       <c r="O18">
-        <v>13435</v>
+        <v>2631.2130000000002</v>
       </c>
       <c r="P18">
-        <v>10142</v>
+        <v>1169.604</v>
       </c>
       <c r="Q18">
-        <v>6679</v>
+        <v>102.65900000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>5068</v>
+        <v>3342.212</v>
       </c>
       <c r="U18">
-        <v>8540</v>
+        <v>822.03700000000003</v>
       </c>
       <c r="V18">
-        <v>286</v>
+        <v>262.77499999999998</v>
       </c>
       <c r="W18">
-        <v>-116</v>
+        <v>-0.251</v>
       </c>
       <c r="X18">
-        <v>6033</v>
+        <v>-84.864000000000004</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>618</v>
+        <v>-18.254000000000001</v>
       </c>
       <c r="AA18">
-        <v>236</v>
+        <v>195.351</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>216</v>
+        <v>188.15</v>
       </c>
       <c r="D19">
-        <v>2051</v>
+        <v>1365.53</v>
       </c>
       <c r="E19">
-        <v>1749</v>
+        <v>885.93799999999999</v>
       </c>
       <c r="F19">
-        <v>1046</v>
+        <v>687.51199999999994</v>
       </c>
       <c r="G19">
-        <v>6996</v>
+        <v>2893.1729999999998</v>
       </c>
       <c r="H19">
-        <v>28293</v>
+        <v>6003.4639999999999</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12128</v>
+        <v>1051.3689999999999</v>
       </c>
       <c r="K19">
-        <v>1710</v>
+        <v>141.05199999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4497</v>
+        <v>1138.963</v>
       </c>
       <c r="O19">
-        <v>21134</v>
+        <v>2586.1329999999998</v>
       </c>
       <c r="P19">
-        <v>13838</v>
+        <v>1192.421</v>
       </c>
       <c r="Q19">
-        <v>-6628</v>
+        <v>3.46</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>7159</v>
+        <v>3417.3310000000001</v>
       </c>
       <c r="U19">
-        <v>1912</v>
+        <v>825.49699999999996</v>
       </c>
       <c r="V19">
-        <v>228</v>
+        <v>201.989</v>
       </c>
       <c r="W19">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1359</v>
+        <v>-121.03100000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>195</v>
+        <v>-0.86399999999999999</v>
       </c>
       <c r="AA19">
-        <v>216</v>
+        <v>188.15</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>189.66800000000001</v>
       </c>
       <c r="D20">
-        <v>3120</v>
+        <v>1381.306</v>
       </c>
       <c r="E20">
-        <v>1775</v>
+        <v>839.23099999999999</v>
       </c>
       <c r="F20">
-        <v>1455</v>
+        <v>694.54200000000003</v>
       </c>
       <c r="G20">
-        <v>6303</v>
+        <v>2945.8850000000002</v>
       </c>
       <c r="H20">
-        <v>27079</v>
+        <v>6010.1779999999999</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11367</v>
+        <v>1066.4849999999999</v>
       </c>
       <c r="K20">
-        <v>1055</v>
+        <v>244.53100000000001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4517</v>
+        <v>1261.473</v>
       </c>
       <c r="O20">
-        <v>19826</v>
+        <v>2716.1390000000001</v>
       </c>
       <c r="P20">
-        <v>13171</v>
+        <v>1311.0160000000001</v>
       </c>
       <c r="Q20">
-        <v>-353</v>
+        <v>92.894000000000005</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7253</v>
+        <v>3294.0390000000002</v>
       </c>
       <c r="U20">
-        <v>1559</v>
+        <v>918.39099999999996</v>
       </c>
       <c r="V20">
-        <v>538</v>
+        <v>331.90600000000001</v>
       </c>
       <c r="W20">
-        <v>-126</v>
+        <v>-45.201000000000001</v>
       </c>
       <c r="X20">
-        <v>-725</v>
+        <v>-105.98699999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>24</v>
+        <v>-21.777000000000001</v>
       </c>
       <c r="AA20">
-        <v>62</v>
+        <v>189.66800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>181</v>
+        <v>149.09399999999999</v>
       </c>
       <c r="D21">
-        <v>3060</v>
+        <v>1379.4760000000001</v>
       </c>
       <c r="E21">
-        <v>1693</v>
+        <v>842.80600000000004</v>
       </c>
       <c r="F21">
-        <v>1442</v>
+        <v>716.73</v>
       </c>
       <c r="G21">
-        <v>5659</v>
+        <v>2975.3139999999999</v>
       </c>
       <c r="H21">
-        <v>26478</v>
+        <v>6132.7929999999997</v>
       </c>
       <c r="I21">
-        <v>631</v>
+        <v>252.262</v>
       </c>
       <c r="J21">
-        <v>11370</v>
+        <v>1060.8330000000001</v>
       </c>
       <c r="K21">
-        <v>700</v>
+        <v>206.125</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4381</v>
+        <v>1299.375</v>
       </c>
       <c r="O21">
-        <v>19314</v>
+        <v>2848.8409999999999</v>
       </c>
       <c r="P21">
-        <v>12822</v>
+        <v>1267.3420000000001</v>
       </c>
       <c r="Q21">
-        <v>-134</v>
+        <v>124.499</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>49517</v>
+        <v>25571</v>
       </c>
       <c r="T21">
-        <v>7164</v>
+        <v>3283.9520000000002</v>
       </c>
       <c r="U21">
-        <v>1424</v>
+        <v>1042.8900000000001</v>
       </c>
       <c r="V21">
-        <v>678</v>
+        <v>420.125</v>
       </c>
       <c r="W21">
-        <v>-127</v>
+        <v>-44.709000000000003</v>
       </c>
       <c r="X21">
-        <v>-477</v>
+        <v>-203.69900000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>-4.0510000000000002</v>
       </c>
       <c r="AA21">
-        <v>181</v>
+        <v>149.09399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>229</v>
+        <v>217.86</v>
       </c>
       <c r="D22">
-        <v>2986</v>
+        <v>1393.845</v>
       </c>
       <c r="E22">
-        <v>1549</v>
+        <v>853.93399999999997</v>
       </c>
       <c r="F22">
-        <v>1408</v>
+        <v>727.899</v>
       </c>
       <c r="G22">
-        <v>5641</v>
+        <v>3146.4650000000001</v>
       </c>
       <c r="H22">
-        <v>26046</v>
+        <v>6230.7560000000003</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10858</v>
+        <v>958.88499999999999</v>
       </c>
       <c r="K22">
-        <v>1451</v>
+        <v>405.65199999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="N22">
-        <v>4529</v>
+        <v>1552.2360000000001</v>
       </c>
       <c r="O22">
-        <v>18823</v>
+        <v>2825.3560000000002</v>
       </c>
       <c r="P22">
-        <v>12809</v>
+        <v>1364.537</v>
       </c>
       <c r="Q22">
-        <v>159</v>
+        <v>126.083</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>7223</v>
+        <v>3405.4</v>
       </c>
       <c r="U22">
-        <v>1583</v>
+        <v>1168.973</v>
       </c>
       <c r="V22">
-        <v>463</v>
+        <v>165.727</v>
       </c>
       <c r="W22">
-        <v>-140</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-145</v>
+        <v>49.921999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>14</v>
+        <v>-7.6680000000000001</v>
       </c>
       <c r="AA22">
-        <v>229</v>
+        <v>217.86</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>338</v>
+        <v>154.06800000000001</v>
       </c>
       <c r="D23">
-        <v>3067</v>
+        <v>1424.2090000000001</v>
       </c>
       <c r="E23">
-        <v>1885</v>
+        <v>864.697</v>
       </c>
       <c r="F23">
-        <v>1483</v>
+        <v>725.44299999999998</v>
       </c>
       <c r="G23">
-        <v>6612</v>
+        <v>2806.6109999999999</v>
       </c>
       <c r="H23">
-        <v>26236</v>
+        <v>6122.7780000000002</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10864</v>
+        <v>956.53899999999999</v>
       </c>
       <c r="K23">
-        <v>1151</v>
+        <v>305.99799999999999</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4380</v>
+        <v>1287.299</v>
       </c>
       <c r="O23">
-        <v>18570</v>
+        <v>2613.9029999999998</v>
       </c>
       <c r="P23">
-        <v>12518</v>
+        <v>1262.537</v>
       </c>
       <c r="Q23">
-        <v>113</v>
+        <v>-392.43900000000002</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>7666</v>
+        <v>3508.875</v>
       </c>
       <c r="U23">
-        <v>1696</v>
+        <v>776.53399999999999</v>
       </c>
       <c r="V23">
-        <v>557</v>
+        <v>200.55699999999999</v>
       </c>
       <c r="W23">
-        <v>-140</v>
+        <v>-106.72799999999999</v>
       </c>
       <c r="X23">
-        <v>-431</v>
+        <v>-252.386</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-4</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="AA23">
-        <v>338</v>
+        <v>154.06800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>391</v>
+        <v>206.37299999999999</v>
       </c>
       <c r="D24">
-        <v>3198</v>
+        <v>1457.347</v>
       </c>
       <c r="E24">
-        <v>1963</v>
+        <v>889.22900000000004</v>
       </c>
       <c r="F24">
-        <v>1547</v>
+        <v>737.83199999999999</v>
       </c>
       <c r="G24">
-        <v>6534</v>
+        <v>2824.2530000000002</v>
       </c>
       <c r="H24">
-        <v>26016</v>
+        <v>6211.1930000000002</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10561</v>
+        <v>953.97299999999996</v>
       </c>
       <c r="K24">
-        <v>1351</v>
+        <v>308.96699999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4219</v>
+        <v>1366.893</v>
       </c>
       <c r="O24">
-        <v>17983</v>
+        <v>2654.72</v>
       </c>
       <c r="P24">
-        <v>11931</v>
+        <v>1262.94</v>
       </c>
       <c r="Q24">
-        <v>-10</v>
+        <v>-55.539000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>8033</v>
+        <v>3556.473</v>
       </c>
       <c r="U24">
-        <v>1686</v>
+        <v>720.995</v>
       </c>
       <c r="V24">
-        <v>834</v>
+        <v>295.10599999999999</v>
       </c>
       <c r="W24">
-        <v>-141</v>
+        <v>-52.853999999999999</v>
       </c>
       <c r="X24">
-        <v>-700</v>
+        <v>-228.8</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>-8.4239999999999995</v>
       </c>
       <c r="AA24">
-        <v>390</v>
+        <v>206.37299999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>173.97900000000001</v>
       </c>
       <c r="D25">
-        <v>3231</v>
+        <v>1462.616</v>
       </c>
       <c r="E25">
-        <v>1957</v>
+        <v>885.74800000000005</v>
       </c>
       <c r="F25">
-        <v>1552</v>
+        <v>753.57799999999997</v>
       </c>
       <c r="G25">
-        <v>6365</v>
+        <v>3185.2530000000002</v>
       </c>
       <c r="H25">
-        <v>25586</v>
+        <v>6824.5249999999996</v>
       </c>
       <c r="I25">
-        <v>665</v>
+        <v>243.602</v>
       </c>
       <c r="J25">
-        <v>10550</v>
+        <v>956.971</v>
       </c>
       <c r="K25">
-        <v>200</v>
+        <v>326.12099999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4400</v>
+        <v>1576.329</v>
       </c>
       <c r="O25">
-        <v>17953</v>
+        <v>2988.3209999999999</v>
       </c>
       <c r="P25">
-        <v>11569</v>
+        <v>1384.1890000000001</v>
       </c>
       <c r="Q25">
-        <v>-145</v>
+        <v>279.29399999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>50928</v>
+        <v>26990</v>
       </c>
       <c r="T25">
-        <v>7633</v>
+        <v>3836.2040000000002</v>
       </c>
       <c r="U25">
-        <v>1541</v>
+        <v>1000.289</v>
       </c>
       <c r="V25">
-        <v>705</v>
+        <v>415.01</v>
       </c>
       <c r="W25">
-        <v>-141</v>
+        <v>-52.848999999999997</v>
       </c>
       <c r="X25">
-        <v>-485</v>
+        <v>89.090999999999994</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-13</v>
+        <v>-14.711</v>
       </c>
       <c r="AA25">
-        <v>18</v>
+        <v>173.97900000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>562</v>
+        <v>142.87899999999999</v>
       </c>
       <c r="D26">
-        <v>2922</v>
+        <v>1501.5260000000001</v>
       </c>
       <c r="E26">
-        <v>1864</v>
+        <v>928.72500000000002</v>
       </c>
       <c r="F26">
-        <v>1452</v>
+        <v>792.59299999999996</v>
       </c>
       <c r="G26">
-        <v>5187</v>
+        <v>2825.1219999999998</v>
       </c>
       <c r="H26">
-        <v>24318</v>
+        <v>6810.5410000000002</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>9043</v>
+        <v>956.11400000000003</v>
       </c>
       <c r="K26">
-        <v>1974</v>
+        <v>205.86600000000001</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-122.246</v>
       </c>
       <c r="M26">
-        <v>-2189</v>
+        <v>-99.947999999999993</v>
       </c>
       <c r="N26">
-        <v>4570</v>
+        <v>1472.27</v>
       </c>
       <c r="O26">
-        <v>16735</v>
+        <v>2879.5410000000002</v>
       </c>
       <c r="P26">
-        <v>11017</v>
+        <v>1161.98</v>
       </c>
       <c r="Q26">
-        <v>-622</v>
+        <v>-466.86399999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>7583</v>
+        <v>3931</v>
       </c>
       <c r="U26">
-        <v>919</v>
+        <v>533.42499999999995</v>
       </c>
       <c r="V26">
-        <v>315</v>
+        <v>285.55900000000003</v>
       </c>
       <c r="W26">
-        <v>-156</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-955</v>
+        <v>-305.96800000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>16</v>
+        <v>-1.587</v>
       </c>
       <c r="AA26">
-        <v>562</v>
+        <v>142.87899999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>343</v>
+        <v>242.53299999999999</v>
       </c>
       <c r="D27">
-        <v>2969</v>
+        <v>1575.922</v>
       </c>
       <c r="E27">
-        <v>1924</v>
+        <v>974.07399999999996</v>
       </c>
       <c r="F27">
-        <v>1432</v>
+        <v>811.38199999999995</v>
       </c>
       <c r="G27">
-        <v>4891</v>
+        <v>2850.6</v>
       </c>
       <c r="H27">
-        <v>24121</v>
+        <v>6951.8220000000001</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9082</v>
+        <v>956.13499999999999</v>
       </c>
       <c r="K27">
-        <v>1224</v>
+        <v>208.45400000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4018</v>
+        <v>1346.874</v>
       </c>
       <c r="O27">
-        <v>16158</v>
+        <v>2822.3339999999998</v>
       </c>
       <c r="P27">
-        <v>10310</v>
+        <v>1164.5889999999999</v>
       </c>
       <c r="Q27">
-        <v>-371</v>
+        <v>-123.77</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7963</v>
+        <v>4129.4880000000003</v>
       </c>
       <c r="U27">
-        <v>548</v>
+        <v>409.65499999999997</v>
       </c>
       <c r="V27">
-        <v>725</v>
+        <v>236.917</v>
       </c>
       <c r="W27">
-        <v>-156</v>
+        <v>-120.14</v>
       </c>
       <c r="X27">
-        <v>-906</v>
+        <v>-152.233</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>10</v>
+        <v>-55.415999999999997</v>
       </c>
       <c r="AA27">
-        <v>344</v>
+        <v>242.53299999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-132</v>
+        <v>244.809</v>
       </c>
       <c r="D28">
-        <v>3035</v>
+        <v>1631.1590000000001</v>
       </c>
       <c r="E28">
-        <v>1784</v>
+        <v>1034.047</v>
       </c>
       <c r="F28">
-        <v>1503</v>
+        <v>840.08799999999997</v>
       </c>
       <c r="G28">
-        <v>18213</v>
+        <v>2961.2339999999999</v>
       </c>
       <c r="H28">
-        <v>37166</v>
+        <v>7122.8450000000003</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>18563</v>
+        <v>953.11199999999997</v>
       </c>
       <c r="K28">
-        <v>453</v>
+        <v>205.77199999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3273</v>
+        <v>1414.78</v>
       </c>
       <c r="O28">
-        <v>24579</v>
+        <v>2894.95</v>
       </c>
       <c r="P28">
-        <v>19016</v>
+        <v>1158.884</v>
       </c>
       <c r="Q28">
-        <v>13303</v>
+        <v>34.509</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>12587</v>
+        <v>4227.8950000000004</v>
       </c>
       <c r="U28">
-        <v>13852</v>
+        <v>444.16399999999999</v>
       </c>
       <c r="V28">
-        <v>384</v>
+        <v>366.26</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-59.944000000000003</v>
       </c>
       <c r="X28">
-        <v>13294</v>
+        <v>-213.602</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-9</v>
+        <v>46.021000000000001</v>
       </c>
       <c r="AA28">
-        <v>-132</v>
+        <v>244.809</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>327</v>
+        <v>259.81200000000001</v>
       </c>
       <c r="D29">
-        <v>3166</v>
+        <v>1651.1010000000001</v>
       </c>
       <c r="E29">
-        <v>1744</v>
+        <v>1083.152</v>
       </c>
       <c r="F29">
-        <v>1554</v>
+        <v>843.72400000000005</v>
       </c>
       <c r="G29">
-        <v>18633</v>
+        <v>3130.5659999999998</v>
       </c>
       <c r="H29">
-        <v>37734</v>
+        <v>7329.3649999999998</v>
       </c>
       <c r="I29">
-        <v>797</v>
+        <v>266.99299999999999</v>
       </c>
       <c r="J29">
-        <v>18667</v>
+        <v>955.71299999999997</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>206.768</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3342</v>
+        <v>1478.809</v>
       </c>
       <c r="O29">
-        <v>24786</v>
+        <v>2967.4079999999999</v>
       </c>
       <c r="P29">
-        <v>18870</v>
+        <v>1163.347</v>
       </c>
       <c r="Q29">
-        <v>328</v>
+        <v>67.317999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>41933</v>
+        <v>28018</v>
       </c>
       <c r="T29">
-        <v>12948</v>
+        <v>4361.9570000000003</v>
       </c>
       <c r="U29">
-        <v>14179</v>
+        <v>511.48200000000003</v>
       </c>
       <c r="V29">
-        <v>1126</v>
+        <v>351.7</v>
       </c>
       <c r="W29">
-        <v>-199</v>
+        <v>-59.725999999999999</v>
       </c>
       <c r="X29">
-        <v>-456</v>
+        <v>-54.225999999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-4</v>
+        <v>-23.065999999999999</v>
       </c>
       <c r="AA29">
-        <v>327</v>
+        <v>259.81200000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-136</v>
+        <v>271.548</v>
       </c>
       <c r="D30">
-        <v>3080</v>
+        <v>1705.7670000000001</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1020.751</v>
       </c>
       <c r="F30">
-        <v>1553</v>
+        <v>875.92100000000005</v>
       </c>
       <c r="G30">
-        <v>7542</v>
+        <v>3345.067</v>
       </c>
       <c r="H30">
-        <v>55363</v>
+        <v>7566.5339999999997</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>22095</v>
+        <v>957.62699999999995</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>208.20599999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-0.23599999999999999</v>
       </c>
       <c r="N30">
-        <v>4896</v>
+        <v>1496.806</v>
       </c>
       <c r="O30">
-        <v>34116</v>
+        <v>3042.2579999999998</v>
       </c>
       <c r="P30">
-        <v>22798</v>
+        <v>1165.8330000000001</v>
       </c>
       <c r="Q30">
-        <v>-12943</v>
+        <v>239.28</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>21247</v>
+        <v>4524.2759999999998</v>
       </c>
       <c r="U30">
-        <v>1124</v>
+        <v>750.76199999999994</v>
       </c>
       <c r="V30">
-        <v>320</v>
+        <v>473.15800000000002</v>
       </c>
       <c r="W30">
-        <v>-210</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1938</v>
+        <v>-101.078</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-63</v>
+        <v>-4.7519999999999998</v>
       </c>
       <c r="AA30">
-        <v>-136</v>
+        <v>271.548</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-12</v>
+        <v>276.18400000000003</v>
       </c>
       <c r="D31">
-        <v>4222</v>
+        <v>1707.68</v>
       </c>
       <c r="E31">
-        <v>2293</v>
+        <v>1168.1189999999999</v>
       </c>
       <c r="F31">
-        <v>2028</v>
+        <v>876.44899999999996</v>
       </c>
       <c r="G31">
-        <v>7512</v>
+        <v>3422.6010000000001</v>
       </c>
       <c r="H31">
-        <v>54573</v>
+        <v>7801.2560000000003</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>22589</v>
+        <v>959.94899999999996</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>208.24799999999999</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>4426</v>
+        <v>1378.9069999999999</v>
       </c>
       <c r="O31">
-        <v>33421</v>
+        <v>2942.08</v>
       </c>
       <c r="P31">
-        <v>22791</v>
+        <v>1168.1969999999999</v>
       </c>
       <c r="Q31">
-        <v>181</v>
+        <v>-189.76300000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>21152</v>
+        <v>4859.1760000000004</v>
       </c>
       <c r="U31">
-        <v>1251</v>
+        <v>560.99900000000002</v>
       </c>
       <c r="V31">
-        <v>697</v>
+        <v>212.74700000000001</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-139.43799999999999</v>
       </c>
       <c r="X31">
-        <v>-373</v>
+        <v>-212.726</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>70</v>
+        <v>-26.702000000000002</v>
       </c>
       <c r="AA31">
-        <v>-12</v>
+        <v>276.18400000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>594</v>
+        <v>297.089</v>
       </c>
       <c r="D32">
-        <v>4278</v>
+        <v>1849.3389999999999</v>
       </c>
       <c r="E32">
-        <v>2243</v>
+        <v>1175.2560000000001</v>
       </c>
       <c r="F32">
-        <v>2072</v>
+        <v>943.95100000000002</v>
       </c>
       <c r="G32">
-        <v>7525</v>
+        <v>3648.4720000000002</v>
       </c>
       <c r="H32">
-        <v>53977</v>
+        <v>8129.2060000000001</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>20350</v>
+        <v>954.85500000000002</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>204.34899999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>6107</v>
+        <v>1465.9490000000001</v>
       </c>
       <c r="O32">
-        <v>32620</v>
+        <v>3055.0929999999998</v>
       </c>
       <c r="P32">
-        <v>22250</v>
+        <v>1159.204</v>
       </c>
       <c r="Q32">
-        <v>92</v>
+        <v>174.90899999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>21357</v>
+        <v>5074.1130000000003</v>
       </c>
       <c r="U32">
-        <v>1384</v>
+        <v>735.90800000000002</v>
       </c>
       <c r="V32">
-        <v>542</v>
+        <v>544.25599999999997</v>
       </c>
       <c r="W32">
-        <v>-238</v>
+        <v>-69.558000000000007</v>
       </c>
       <c r="X32">
-        <v>-616</v>
+        <v>-134.166</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>6</v>
+        <v>-18.716000000000001</v>
       </c>
       <c r="AA32">
-        <v>594</v>
+        <v>297.089</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-135</v>
+        <v>282.17500000000001</v>
       </c>
       <c r="D33">
-        <v>4402</v>
+        <v>1812.1559999999999</v>
       </c>
       <c r="E33">
-        <v>2319</v>
+        <v>1079.0509999999999</v>
       </c>
       <c r="F33">
-        <v>2151</v>
+        <v>931.78300000000002</v>
       </c>
       <c r="G33">
-        <v>7411</v>
+        <v>3614.6750000000002</v>
       </c>
       <c r="H33">
-        <v>53904</v>
+        <v>7912.9430000000002</v>
       </c>
       <c r="I33">
-        <v>1106</v>
+        <v>260.88200000000001</v>
       </c>
       <c r="J33">
-        <v>18894</v>
+        <v>953.226</v>
       </c>
       <c r="K33">
-        <v>710</v>
+        <v>200.99199999999999</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>7216</v>
+        <v>1416.579</v>
       </c>
       <c r="O33">
-        <v>32910</v>
+        <v>2977.375</v>
       </c>
       <c r="P33">
-        <v>21495</v>
+        <v>1154.538</v>
       </c>
       <c r="Q33">
-        <v>-273</v>
+        <v>94.569000000000003</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>76032</v>
+        <v>28277</v>
       </c>
       <c r="T33">
-        <v>20994</v>
+        <v>4935.5680000000002</v>
       </c>
       <c r="U33">
-        <v>1140</v>
+        <v>830.47699999999998</v>
       </c>
       <c r="V33">
-        <v>1306</v>
+        <v>456.93700000000001</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-69.510000000000005</v>
       </c>
       <c r="X33">
-        <v>-1007</v>
+        <v>-137.858</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-13</v>
+        <v>-1.8169999999999999</v>
       </c>
       <c r="AA33">
-        <v>-135</v>
+        <v>282.17500000000001</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>599</v>
+        <v>312.06799999999998</v>
       </c>
       <c r="D34">
-        <v>4160</v>
+        <v>1717.9190000000001</v>
       </c>
       <c r="E34">
-        <v>2216</v>
+        <v>1072.01</v>
       </c>
       <c r="F34">
-        <v>1973</v>
+        <v>921.64499999999998</v>
       </c>
       <c r="G34">
-        <v>6941</v>
+        <v>3465.1379999999999</v>
       </c>
       <c r="H34">
-        <v>52932</v>
+        <v>7660.6930000000002</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>17817</v>
+        <v>747.76</v>
       </c>
       <c r="K34">
-        <v>3254</v>
+        <v>408.9</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-453</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="N34">
-        <v>7145</v>
+        <v>1638.1959999999999</v>
       </c>
       <c r="O34">
-        <v>31528</v>
+        <v>2893.7220000000002</v>
       </c>
       <c r="P34">
-        <v>21071</v>
+        <v>1156.6600000000001</v>
       </c>
       <c r="Q34">
-        <v>-195</v>
+        <v>-232.858</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>21404</v>
+        <v>4766.9709999999995</v>
       </c>
       <c r="U34">
-        <v>943</v>
+        <v>597.61900000000003</v>
       </c>
       <c r="V34">
-        <v>245</v>
+        <v>267.86500000000001</v>
       </c>
       <c r="W34">
-        <v>-245</v>
+        <v>-82.102000000000004</v>
       </c>
       <c r="X34">
-        <v>-734</v>
+        <v>-367.53699999999998</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-8.8249999999999993</v>
       </c>
       <c r="AA34">
-        <v>599</v>
+        <v>312.06799999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>261.28899999999999</v>
       </c>
       <c r="D35">
-        <v>4195</v>
+        <v>1724.9670000000001</v>
       </c>
       <c r="E35">
-        <v>2279</v>
+        <v>1062.106</v>
       </c>
       <c r="F35">
-        <v>1974</v>
+        <v>895.61699999999996</v>
       </c>
       <c r="G35">
-        <v>6844</v>
+        <v>3407.797</v>
       </c>
       <c r="H35">
-        <v>52598</v>
+        <v>7575.83</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>17556</v>
+        <v>747.67</v>
       </c>
       <c r="K35">
-        <v>3057</v>
+        <v>405.55399999999997</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>7108</v>
+        <v>1510.6869999999999</v>
       </c>
       <c r="O35">
-        <v>31289</v>
+        <v>2771.8069999999998</v>
       </c>
       <c r="P35">
-        <v>20613</v>
+        <v>1153.2239999999999</v>
       </c>
       <c r="Q35">
-        <v>-274</v>
+        <v>-54.906999999999996</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>21309</v>
+        <v>4804.0230000000001</v>
       </c>
       <c r="U35">
-        <v>686</v>
+        <v>542.71199999999999</v>
       </c>
       <c r="V35">
-        <v>782</v>
+        <v>256.09399999999999</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-76.603999999999999</v>
       </c>
       <c r="X35">
-        <v>-798</v>
+        <v>-112.01600000000001</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-7.407</v>
       </c>
       <c r="AA35">
-        <v>20</v>
+        <v>261.28899999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>452</v>
+        <v>341.02600000000001</v>
       </c>
       <c r="D36">
-        <v>4350</v>
+        <v>1820.2550000000001</v>
       </c>
       <c r="E36">
-        <v>2220</v>
+        <v>1144.944</v>
       </c>
       <c r="F36">
-        <v>2074</v>
+        <v>960.19200000000001</v>
       </c>
       <c r="G36">
-        <v>6781</v>
+        <v>4491.5370000000003</v>
       </c>
       <c r="H36">
-        <v>52233</v>
+        <v>8848.9869999999992</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>18016</v>
+        <v>1483.56</v>
       </c>
       <c r="K36">
-        <v>2168</v>
+        <v>405.73700000000002</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6237</v>
+        <v>1646.462</v>
       </c>
       <c r="O36">
-        <v>30736</v>
+        <v>3637.0909999999999</v>
       </c>
       <c r="P36">
-        <v>20184</v>
+        <v>1889.297</v>
       </c>
       <c r="Q36">
-        <v>-173</v>
+        <v>788.88900000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>21497</v>
+        <v>5211.8959999999997</v>
       </c>
       <c r="U36">
-        <v>523</v>
+        <v>1331.6010000000001</v>
       </c>
       <c r="V36">
-        <v>932</v>
+        <v>533.96699999999998</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-79.201999999999998</v>
       </c>
       <c r="X36">
-        <v>-768</v>
+        <v>641.56700000000001</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-206.83199999999999</v>
       </c>
       <c r="AA36">
-        <v>451</v>
+        <v>341.02699999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>162</v>
+        <v>317.22000000000003</v>
       </c>
       <c r="D37">
-        <v>4584</v>
+        <v>1723.5809999999999</v>
       </c>
       <c r="E37">
-        <v>2345</v>
+        <v>1168.662</v>
       </c>
       <c r="F37">
-        <v>2266</v>
+        <v>897.59199999999998</v>
       </c>
       <c r="G37">
-        <v>6664</v>
+        <v>4646.9539999999997</v>
       </c>
       <c r="H37">
-        <v>51765</v>
+        <v>9304.6239999999998</v>
       </c>
       <c r="I37">
-        <v>1092</v>
+        <v>264.18099999999998</v>
       </c>
       <c r="J37">
-        <v>18081</v>
+        <v>1488.46</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>202.88</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5655</v>
+        <v>1777.0930000000001</v>
       </c>
       <c r="O37">
-        <v>30684</v>
+        <v>4161.9120000000003</v>
       </c>
       <c r="P37">
-        <v>19390</v>
+        <v>1891.425</v>
       </c>
       <c r="Q37">
-        <v>-4</v>
+        <v>62.643000000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>70093</v>
+        <v>29116</v>
       </c>
       <c r="T37">
-        <v>21081</v>
+        <v>5142.7120000000004</v>
       </c>
       <c r="U37">
-        <v>536</v>
+        <v>1394.2439999999999</v>
       </c>
       <c r="V37">
-        <v>1371</v>
+        <v>658.88900000000001</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>-78.968999999999994</v>
       </c>
       <c r="X37">
-        <v>-923</v>
+        <v>-241.71</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-114.324</v>
       </c>
       <c r="AA37">
-        <v>162</v>
+        <v>317.22000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>278</v>
+        <v>316.37599999999998</v>
       </c>
       <c r="D38">
-        <v>4225</v>
+        <v>1868.818</v>
       </c>
       <c r="E38">
-        <v>2074</v>
+        <v>1075.2629999999999</v>
       </c>
       <c r="F38">
-        <v>1978</v>
+        <v>974.49400000000003</v>
       </c>
       <c r="G38">
-        <v>6438</v>
+        <v>4056.893</v>
       </c>
       <c r="H38">
-        <v>51952</v>
+        <v>9094.2759999999998</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>16949</v>
+        <v>1487.8440000000001</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>205.441</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-197.309</v>
       </c>
       <c r="M38">
-        <v>-303</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="N38">
-        <v>6726</v>
+        <v>1538.827</v>
       </c>
       <c r="O38">
-        <v>30750</v>
+        <v>3834.1170000000002</v>
       </c>
       <c r="P38">
-        <v>19850</v>
+        <v>1693.2850000000001</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>-211.93799999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>21202</v>
+        <v>5260.1589999999997</v>
       </c>
       <c r="U38">
-        <v>560</v>
+        <v>1182.306</v>
       </c>
       <c r="V38">
-        <v>713</v>
+        <v>394.52</v>
       </c>
       <c r="W38">
-        <v>-252</v>
+        <v>-89.888999999999996</v>
       </c>
       <c r="X38">
-        <v>-413</v>
+        <v>-466.673</v>
       </c>
       <c r="Y38">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>279.59300000000002</v>
       </c>
       <c r="AA38">
-        <v>278</v>
+        <v>316.37599999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>183</v>
+        <v>297.63099999999997</v>
       </c>
       <c r="D39">
-        <v>4253</v>
+        <v>1799.4090000000001</v>
       </c>
       <c r="E39">
-        <v>2160</v>
+        <v>1142.155</v>
       </c>
       <c r="F39">
-        <v>1971</v>
+        <v>934.91700000000003</v>
       </c>
       <c r="G39">
-        <v>8555</v>
+        <v>3939.4929999999999</v>
       </c>
       <c r="H39">
-        <v>53516</v>
+        <v>8943.3919999999998</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>16809</v>
+        <v>1490.2619999999999</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>200.57300000000001</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>8755</v>
+        <v>1467.4659999999999</v>
       </c>
       <c r="O39">
-        <v>32565</v>
+        <v>3793.7579999999998</v>
       </c>
       <c r="P39">
-        <v>21614</v>
+        <v>1690.835</v>
       </c>
       <c r="Q39">
-        <v>1831</v>
+        <v>-351.61799999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>20951</v>
+        <v>5149.634</v>
       </c>
       <c r="U39">
-        <v>2351</v>
+        <v>830.68799999999999</v>
       </c>
       <c r="V39">
-        <v>483</v>
+        <v>292.01499999999999</v>
       </c>
       <c r="W39">
-        <v>-253</v>
+        <v>-84.343000000000004</v>
       </c>
       <c r="X39">
-        <v>1623</v>
+        <v>-310.95499999999998</v>
       </c>
       <c r="Y39">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-155.96</v>
       </c>
       <c r="AA39">
-        <v>183</v>
+        <v>297.63099999999997</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>285</v>
+        <v>306.90800000000002</v>
       </c>
       <c r="D40">
-        <v>3855</v>
+        <v>1830.9110000000001</v>
       </c>
       <c r="E40">
-        <v>1993</v>
+        <v>1090.0930000000001</v>
       </c>
       <c r="F40">
-        <v>1660</v>
+        <v>947.47699999999998</v>
       </c>
       <c r="G40">
-        <v>8828</v>
+        <v>4123.0609999999997</v>
       </c>
       <c r="H40">
-        <v>53959</v>
+        <v>9031.6730000000007</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>17090</v>
+        <v>1493.4</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>202.221</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>6067</v>
+        <v>1531.4259999999999</v>
       </c>
       <c r="O40">
-        <v>29937</v>
+        <v>3877.7959999999998</v>
       </c>
       <c r="P40">
-        <v>19163</v>
+        <v>1695.6210000000001</v>
       </c>
       <c r="Q40">
-        <v>525</v>
+        <v>-80.581999999999994</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>24022</v>
+        <v>5153.8770000000004</v>
       </c>
       <c r="U40">
-        <v>2882</v>
+        <v>750.10599999999999</v>
       </c>
       <c r="V40">
-        <v>862</v>
+        <v>507.709</v>
       </c>
       <c r="W40">
-        <v>-268</v>
+        <v>-86.111999999999995</v>
       </c>
       <c r="X40">
-        <v>20</v>
+        <v>-178.55600000000001</v>
       </c>
       <c r="Y40">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-270.512</v>
       </c>
       <c r="AA40">
-        <v>286</v>
+        <v>306.90800000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>128</v>
+        <v>396.69499999999999</v>
       </c>
       <c r="D41">
-        <v>4784</v>
+        <v>1873.1949999999999</v>
       </c>
       <c r="E41">
-        <v>2398</v>
+        <v>1205.377</v>
       </c>
       <c r="F41">
-        <v>2509</v>
+        <v>972.26199999999994</v>
       </c>
       <c r="G41">
-        <v>8969</v>
+        <v>4505.25</v>
       </c>
       <c r="H41">
-        <v>54012</v>
+        <v>9650.6939999999995</v>
       </c>
       <c r="I41">
-        <v>1355</v>
+        <v>325.40199999999999</v>
       </c>
       <c r="J41">
-        <v>17224</v>
+        <v>1495.357</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>202.727</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5836</v>
+        <v>1671.673</v>
       </c>
       <c r="O41">
-        <v>30247</v>
+        <v>4216.1139999999996</v>
       </c>
       <c r="P41">
-        <v>18373</v>
+        <v>1698.115</v>
       </c>
       <c r="Q41">
-        <v>-48</v>
+        <v>465.88299999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>72000</v>
+        <v>28803</v>
       </c>
       <c r="T41">
-        <v>23765</v>
+        <v>5434.58</v>
       </c>
       <c r="U41">
-        <v>2825</v>
+        <v>1215.989</v>
       </c>
       <c r="V41">
-        <v>1481</v>
+        <v>550.024</v>
       </c>
       <c r="W41">
-        <v>-253</v>
+        <v>-85.369</v>
       </c>
       <c r="X41">
-        <v>-1208</v>
+        <v>-266.50299999999999</v>
       </c>
       <c r="Y41">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>182.392</v>
       </c>
       <c r="AA41">
-        <v>128</v>
+        <v>396.69499999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>315.93700000000001</v>
+      </c>
+      <c r="D42">
+        <v>1842.0050000000001</v>
+      </c>
+      <c r="E42">
+        <v>1093.19</v>
+      </c>
+      <c r="F42">
+        <v>976.57399999999996</v>
+      </c>
+      <c r="G42">
+        <v>4950.8410000000003</v>
+      </c>
+      <c r="H42">
+        <v>10071.27</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2485.0189999999998</v>
+      </c>
+      <c r="K42">
+        <v>235.29499999999999</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="N42">
+        <v>1612.3530000000001</v>
+      </c>
+      <c r="O42">
+        <v>5193.3370000000004</v>
+      </c>
+      <c r="P42">
+        <v>2720.3139999999999</v>
+      </c>
+      <c r="Q42">
+        <v>33.366</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>4877.933</v>
+      </c>
+      <c r="U42">
+        <v>1249.355</v>
+      </c>
+      <c r="V42">
+        <v>466.10899999999998</v>
+      </c>
+      <c r="W42">
+        <v>-92.706999999999994</v>
+      </c>
+      <c r="X42">
+        <v>135.98699999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-464.01499999999999</v>
+      </c>
+      <c r="AA42">
+        <v>315.93700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>312.01900000000001</v>
+      </c>
+      <c r="D43">
+        <v>1801.962</v>
+      </c>
+      <c r="E43">
+        <v>1209.7</v>
+      </c>
+      <c r="F43">
+        <v>935.96400000000006</v>
+      </c>
+      <c r="G43">
+        <v>4856.63</v>
+      </c>
+      <c r="H43">
+        <v>10344.223</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2484.1680000000001</v>
+      </c>
+      <c r="K43">
+        <v>241.43100000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1578.9110000000001</v>
+      </c>
+      <c r="O43">
+        <v>5245.1620000000003</v>
+      </c>
+      <c r="P43">
+        <v>2725.5990000000002</v>
+      </c>
+      <c r="Q43">
+        <v>-500.767</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5099.0609999999997</v>
+      </c>
+      <c r="U43">
+        <v>748.58799999999997</v>
+      </c>
+      <c r="V43">
+        <v>241.559</v>
+      </c>
+      <c r="W43">
+        <v>-90.159000000000006</v>
+      </c>
+      <c r="X43">
+        <v>-291.47699999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-102.673</v>
+      </c>
+      <c r="AA43">
+        <v>312.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>343.05900000000003</v>
+      </c>
+      <c r="D44">
+        <v>1951.8889999999999</v>
+      </c>
+      <c r="E44">
+        <v>1250.1949999999999</v>
+      </c>
+      <c r="F44">
+        <v>1029.2370000000001</v>
+      </c>
+      <c r="G44">
+        <v>5073.1329999999998</v>
+      </c>
+      <c r="H44">
+        <v>10620.819</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>2484.953</v>
+      </c>
+      <c r="K44">
+        <v>239.78399999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1657.9259999999999</v>
+      </c>
+      <c r="O44">
+        <v>5322.4189999999999</v>
+      </c>
+      <c r="P44">
+        <v>2724.7370000000001</v>
+      </c>
+      <c r="Q44">
+        <v>409.44900000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5298.4</v>
+      </c>
+      <c r="U44">
+        <v>1158.037</v>
+      </c>
+      <c r="V44">
+        <v>465.63499999999999</v>
+      </c>
+      <c r="W44">
+        <v>-89.870999999999995</v>
+      </c>
+      <c r="X44">
+        <v>-252.76300000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>361.70699999999999</v>
+      </c>
+      <c r="AA44">
+        <v>343.05799999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>299.97899999999998</v>
+      </c>
+      <c r="D45">
+        <v>1988.181</v>
+      </c>
+      <c r="E45">
+        <v>1228.6369999999999</v>
+      </c>
+      <c r="F45">
+        <v>1017.14</v>
+      </c>
+      <c r="G45">
+        <v>4668.3310000000001</v>
+      </c>
+      <c r="H45">
+        <v>10430.428</v>
+      </c>
+      <c r="I45">
+        <v>304.83600000000001</v>
+      </c>
+      <c r="J45">
+        <v>2484.665</v>
+      </c>
+      <c r="K45">
+        <v>234.91</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1823.2280000000001</v>
+      </c>
+      <c r="O45">
+        <v>5602.2529999999997</v>
+      </c>
+      <c r="P45">
+        <v>2788.7</v>
+      </c>
+      <c r="Q45">
+        <v>17.245000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>29369</v>
+      </c>
+      <c r="T45">
+        <v>4828.1750000000002</v>
+      </c>
+      <c r="U45">
+        <v>1175.2819999999999</v>
+      </c>
+      <c r="V45">
+        <v>542.697</v>
+      </c>
+      <c r="W45">
+        <v>-88.462000000000003</v>
+      </c>
+      <c r="X45">
+        <v>-306.12900000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>326.57</v>
+      </c>
+      <c r="AA45">
+        <v>299.97899999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>262.98500000000001</v>
+      </c>
+      <c r="D46">
+        <v>1831.72</v>
+      </c>
+      <c r="E46">
+        <v>1139.0809999999999</v>
+      </c>
+      <c r="F46">
+        <v>931.255</v>
+      </c>
+      <c r="G46">
+        <v>5694.1440000000002</v>
+      </c>
+      <c r="H46">
+        <v>11413.362999999999</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3972.194</v>
+      </c>
+      <c r="K46">
+        <v>203.89400000000001</v>
+      </c>
+      <c r="L46">
+        <v>-0.379</v>
+      </c>
+      <c r="M46">
+        <v>-31.454000000000001</v>
+      </c>
+      <c r="N46">
+        <v>1606.374</v>
+      </c>
+      <c r="O46">
+        <v>6685.8090000000002</v>
+      </c>
+      <c r="P46">
+        <v>4176.0879999999997</v>
+      </c>
+      <c r="Q46">
+        <v>1020.996</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4727.5540000000001</v>
+      </c>
+      <c r="U46">
+        <v>2196.2779999999998</v>
+      </c>
+      <c r="V46">
+        <v>314.55799999999999</v>
+      </c>
+      <c r="W46">
+        <v>-96.153999999999996</v>
+      </c>
+      <c r="X46">
+        <v>959.16700000000003</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-109.982</v>
+      </c>
+      <c r="AA46">
+        <v>262.98500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>291.03399999999999</v>
+      </c>
+      <c r="D47">
+        <v>1928.961</v>
+      </c>
+      <c r="E47">
+        <v>1237.8499999999999</v>
+      </c>
+      <c r="F47">
+        <v>987.77700000000004</v>
+      </c>
+      <c r="G47">
+        <v>5300.585</v>
+      </c>
+      <c r="H47">
+        <v>11195.392</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3964.143</v>
+      </c>
+      <c r="K47">
+        <v>206.33</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1621.489</v>
+      </c>
+      <c r="O47">
+        <v>6719.1040000000003</v>
+      </c>
+      <c r="P47">
+        <v>4170.473</v>
+      </c>
+      <c r="Q47">
+        <v>-356.78800000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>4476.2879999999996</v>
+      </c>
+      <c r="U47">
+        <v>1839.49</v>
+      </c>
+      <c r="V47">
+        <v>293.09199999999998</v>
+      </c>
+      <c r="W47">
+        <v>-92.067999999999998</v>
+      </c>
+      <c r="X47">
+        <v>-681.65599999999995</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>232.24700000000001</v>
+      </c>
+      <c r="AA47">
+        <v>291.03300000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>326.86500000000001</v>
+      </c>
+      <c r="D48">
+        <v>1980.53</v>
+      </c>
+      <c r="E48">
+        <v>1160.3440000000001</v>
+      </c>
+      <c r="F48">
+        <v>1033.135</v>
+      </c>
+      <c r="G48">
+        <v>5284.7150000000001</v>
+      </c>
+      <c r="H48">
+        <v>11024.864</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3760.6419999999998</v>
+      </c>
+      <c r="K48">
+        <v>410.73700000000002</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1889.6690000000001</v>
+      </c>
+      <c r="O48">
+        <v>6790.36</v>
+      </c>
+      <c r="P48">
+        <v>4171.3789999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-180.77099999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>4234.5039999999999</v>
+      </c>
+      <c r="U48">
+        <v>1658.7190000000001</v>
+      </c>
+      <c r="V48">
+        <v>582.87400000000002</v>
+      </c>
+      <c r="W48">
+        <v>-92.037999999999997</v>
+      </c>
+      <c r="X48">
+        <v>-333.86399999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-280.339</v>
+      </c>
+      <c r="AA48">
+        <v>326.86599999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>289.11599999999999</v>
+      </c>
+      <c r="D49">
+        <v>1966.789</v>
+      </c>
+      <c r="E49">
+        <v>1250</v>
+      </c>
+      <c r="F49">
+        <v>1000.833</v>
+      </c>
+      <c r="G49">
+        <v>5322</v>
+      </c>
+      <c r="H49">
+        <v>11361</v>
+      </c>
+      <c r="I49">
+        <v>350</v>
+      </c>
+      <c r="J49">
+        <v>3761</v>
+      </c>
+      <c r="K49">
+        <v>203</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1978</v>
+      </c>
+      <c r="O49">
+        <v>7225</v>
+      </c>
+      <c r="P49">
+        <v>4166</v>
+      </c>
+      <c r="Q49">
+        <v>12.563000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>29555</v>
+      </c>
+      <c r="T49">
+        <v>4136</v>
+      </c>
+      <c r="U49">
+        <v>1671</v>
+      </c>
+      <c r="V49">
+        <v>569.476</v>
+      </c>
+      <c r="W49">
+        <v>-87.74</v>
+      </c>
+      <c r="X49">
+        <v>-313.64699999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>20.074000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>289.11599999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>625</v>
+      </c>
+      <c r="D50">
+        <v>1900</v>
+      </c>
+      <c r="E50">
+        <v>1167.722</v>
+      </c>
+      <c r="F50">
+        <v>1006</v>
+      </c>
+      <c r="G50">
+        <v>5477.4719999999998</v>
+      </c>
+      <c r="H50">
+        <v>11629.437</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>3761.5920000000001</v>
+      </c>
+      <c r="K50">
+        <v>408.24299999999999</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2003.7819999999999</v>
+      </c>
+      <c r="O50">
+        <v>7159.9679999999998</v>
+      </c>
+      <c r="P50">
+        <v>4169.835</v>
+      </c>
+      <c r="Q50">
+        <v>246</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4469.4690000000001</v>
+      </c>
+      <c r="U50">
+        <v>1917.472</v>
+      </c>
+      <c r="V50">
+        <v>234</v>
+      </c>
+      <c r="W50">
+        <v>-97</v>
+      </c>
+      <c r="X50">
+        <v>-379</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-86</v>
+      </c>
+      <c r="AA50">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>276</v>
+      </c>
+      <c r="D51">
+        <v>2000</v>
+      </c>
+      <c r="E51">
+        <v>1220.0139999999999</v>
+      </c>
+      <c r="F51">
+        <v>1018</v>
+      </c>
+      <c r="G51">
+        <v>5499.9979999999996</v>
+      </c>
+      <c r="H51">
+        <v>11629.923000000001</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>3762.0770000000002</v>
+      </c>
+      <c r="K51">
+        <v>207.154</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1878.039</v>
+      </c>
+      <c r="O51">
+        <v>7041.1409999999996</v>
+      </c>
+      <c r="P51">
+        <v>4169.5129999999999</v>
+      </c>
+      <c r="Q51">
+        <v>107</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>4588.7820000000002</v>
+      </c>
+      <c r="U51">
+        <v>2023.86</v>
+      </c>
+      <c r="V51">
+        <v>209</v>
+      </c>
+      <c r="W51">
+        <v>-96</v>
+      </c>
+      <c r="X51">
+        <v>-121</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>202</v>
+      </c>
+      <c r="AA51">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>302</v>
+      </c>
+      <c r="D52">
+        <v>2053</v>
+      </c>
+      <c r="E52">
+        <v>1254.595</v>
+      </c>
+      <c r="F52">
+        <v>1060</v>
+      </c>
+      <c r="G52">
+        <v>5434.5110000000004</v>
+      </c>
+      <c r="H52">
+        <v>11587.047</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3762.567</v>
+      </c>
+      <c r="K52">
+        <v>207.43199999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1692.817</v>
+      </c>
+      <c r="O52">
+        <v>6870.527</v>
+      </c>
+      <c r="P52">
+        <v>3969.9989999999998</v>
+      </c>
+      <c r="Q52">
+        <v>-62</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4716.5200000000004</v>
+      </c>
+      <c r="U52">
+        <v>1962.086</v>
+      </c>
+      <c r="V52">
+        <v>393</v>
+      </c>
+      <c r="W52">
+        <v>-97</v>
+      </c>
+      <c r="X52">
+        <v>-330</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>41</v>
+      </c>
+      <c r="AA52">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>2101</v>
+      </c>
+      <c r="E53">
+        <v>1240</v>
+      </c>
+      <c r="F53">
+        <v>1087</v>
+      </c>
+      <c r="G53">
+        <v>5873</v>
+      </c>
+      <c r="H53">
+        <v>12149</v>
+      </c>
+      <c r="I53">
+        <v>333</v>
+      </c>
+      <c r="J53">
+        <v>3763</v>
+      </c>
+      <c r="K53">
+        <v>207</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2130</v>
+      </c>
+      <c r="O53">
+        <v>7106</v>
+      </c>
+      <c r="P53">
+        <v>3970</v>
+      </c>
+      <c r="Q53">
+        <v>-72</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>29979</v>
+      </c>
+      <c r="T53">
+        <v>5043</v>
+      </c>
+      <c r="U53">
+        <v>1890</v>
+      </c>
+      <c r="V53">
+        <v>669</v>
+      </c>
+      <c r="W53">
+        <v>-96</v>
+      </c>
+      <c r="X53">
+        <v>-138</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-382</v>
+      </c>
+      <c r="AA53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>271</v>
+      </c>
+      <c r="D54">
+        <v>2015</v>
+      </c>
+      <c r="E54">
+        <v>1113</v>
+      </c>
+      <c r="F54">
+        <v>1035</v>
+      </c>
+      <c r="G54">
+        <v>5743</v>
+      </c>
+      <c r="H54">
+        <v>12035</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3764</v>
+      </c>
+      <c r="K54">
+        <v>205</v>
+      </c>
+      <c r="L54">
+        <v>-3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1997</v>
+      </c>
+      <c r="O54">
+        <v>6957</v>
+      </c>
+      <c r="P54">
+        <v>3969</v>
+      </c>
+      <c r="Q54">
+        <v>-211</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>5078</v>
+      </c>
+      <c r="U54">
+        <v>1679</v>
+      </c>
+      <c r="V54">
+        <v>355</v>
+      </c>
+      <c r="W54">
+        <v>-106</v>
+      </c>
+      <c r="X54">
+        <v>-298</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-125</v>
+      </c>
+      <c r="AA54">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>287</v>
+      </c>
+      <c r="D55">
+        <v>2072</v>
+      </c>
+      <c r="E55">
+        <v>1130</v>
+      </c>
+      <c r="F55">
+        <v>1053</v>
+      </c>
+      <c r="G55">
+        <v>5946</v>
+      </c>
+      <c r="H55">
+        <v>12250</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3764</v>
+      </c>
+      <c r="K55">
+        <v>202</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2016</v>
+      </c>
+      <c r="O55">
+        <v>6935</v>
+      </c>
+      <c r="P55">
+        <v>3966</v>
+      </c>
+      <c r="Q55">
+        <v>52</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>5315</v>
+      </c>
+      <c r="U55">
+        <v>1731</v>
+      </c>
+      <c r="V55">
+        <v>413</v>
+      </c>
+      <c r="W55">
+        <v>-105</v>
+      </c>
+      <c r="X55">
+        <v>-124</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-48</v>
+      </c>
+      <c r="AA55">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>326</v>
+      </c>
+      <c r="D56">
+        <v>2157</v>
+      </c>
+      <c r="E56">
+        <v>1204</v>
+      </c>
+      <c r="F56">
+        <v>1111</v>
+      </c>
+      <c r="G56">
+        <v>6045</v>
+      </c>
+      <c r="H56">
+        <v>12374</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3768</v>
+      </c>
+      <c r="K56">
+        <v>205</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2093</v>
+      </c>
+      <c r="O56">
+        <v>6996</v>
+      </c>
+      <c r="P56">
+        <v>3973</v>
+      </c>
+      <c r="Q56">
+        <v>-70</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5378</v>
+      </c>
+      <c r="U56">
+        <v>1661</v>
+      </c>
+      <c r="V56">
+        <v>439</v>
+      </c>
+      <c r="W56">
+        <v>-105</v>
+      </c>
+      <c r="X56">
+        <v>-279</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-71</v>
+      </c>
+      <c r="AA56">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>301</v>
+      </c>
+      <c r="D57">
+        <v>2188</v>
+      </c>
+      <c r="E57">
+        <v>1192</v>
+      </c>
+      <c r="F57">
+        <v>1107</v>
+      </c>
+      <c r="G57">
+        <v>6130</v>
+      </c>
+      <c r="H57">
+        <v>12447</v>
+      </c>
+      <c r="I57">
+        <v>401</v>
+      </c>
+      <c r="J57">
+        <v>3768</v>
+      </c>
+      <c r="K57">
+        <v>203</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2235</v>
+      </c>
+      <c r="O57">
+        <v>7394</v>
+      </c>
+      <c r="P57">
+        <v>3971</v>
+      </c>
+      <c r="Q57">
+        <v>200</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>30619</v>
+      </c>
+      <c r="T57">
+        <v>5053</v>
+      </c>
+      <c r="U57">
+        <v>1861</v>
+      </c>
+      <c r="V57">
+        <v>539</v>
+      </c>
+      <c r="W57">
+        <v>-105</v>
+      </c>
+      <c r="X57">
+        <v>-106</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>73</v>
+      </c>
+      <c r="AA57">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>236</v>
+      </c>
+      <c r="D58">
+        <v>2051</v>
+      </c>
+      <c r="E58">
+        <v>1031</v>
+      </c>
+      <c r="F58">
+        <v>1045</v>
+      </c>
+      <c r="G58">
+        <v>12111</v>
+      </c>
+      <c r="H58">
+        <v>18503</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>9940</v>
+      </c>
+      <c r="K58">
+        <v>202</v>
+      </c>
+      <c r="L58">
+        <v>-1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2081</v>
+      </c>
+      <c r="O58">
+        <v>13435</v>
+      </c>
+      <c r="P58">
+        <v>10142</v>
+      </c>
+      <c r="Q58">
+        <v>6679</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>5068</v>
+      </c>
+      <c r="U58">
+        <v>8540</v>
+      </c>
+      <c r="V58">
+        <v>286</v>
+      </c>
+      <c r="W58">
+        <v>-116</v>
+      </c>
+      <c r="X58">
+        <v>6033</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>618</v>
+      </c>
+      <c r="AA58">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>216</v>
+      </c>
+      <c r="D59">
+        <v>2051</v>
+      </c>
+      <c r="E59">
+        <v>1749</v>
+      </c>
+      <c r="F59">
+        <v>1046</v>
+      </c>
+      <c r="G59">
+        <v>6996</v>
+      </c>
+      <c r="H59">
+        <v>28293</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>12128</v>
+      </c>
+      <c r="K59">
+        <v>1710</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4497</v>
+      </c>
+      <c r="O59">
+        <v>21134</v>
+      </c>
+      <c r="P59">
+        <v>13838</v>
+      </c>
+      <c r="Q59">
+        <v>-6628</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7159</v>
+      </c>
+      <c r="U59">
+        <v>1912</v>
+      </c>
+      <c r="V59">
+        <v>228</v>
+      </c>
+      <c r="W59">
+        <v>-116</v>
+      </c>
+      <c r="X59">
+        <v>1359</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>195</v>
+      </c>
+      <c r="AA59">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>3120</v>
+      </c>
+      <c r="E60">
+        <v>1775</v>
+      </c>
+      <c r="F60">
+        <v>1455</v>
+      </c>
+      <c r="G60">
+        <v>6303</v>
+      </c>
+      <c r="H60">
+        <v>27079</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>11367</v>
+      </c>
+      <c r="K60">
+        <v>1055</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4517</v>
+      </c>
+      <c r="O60">
+        <v>19826</v>
+      </c>
+      <c r="P60">
+        <v>13171</v>
+      </c>
+      <c r="Q60">
+        <v>-353</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7253</v>
+      </c>
+      <c r="U60">
+        <v>1559</v>
+      </c>
+      <c r="V60">
+        <v>538</v>
+      </c>
+      <c r="W60">
+        <v>-126</v>
+      </c>
+      <c r="X60">
+        <v>-725</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>24</v>
+      </c>
+      <c r="AA60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>181</v>
+      </c>
+      <c r="D61">
+        <v>3060</v>
+      </c>
+      <c r="E61">
+        <v>1693</v>
+      </c>
+      <c r="F61">
+        <v>1442</v>
+      </c>
+      <c r="G61">
+        <v>5659</v>
+      </c>
+      <c r="H61">
+        <v>26478</v>
+      </c>
+      <c r="I61">
+        <v>631</v>
+      </c>
+      <c r="J61">
+        <v>11370</v>
+      </c>
+      <c r="K61">
+        <v>700</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>4381</v>
+      </c>
+      <c r="O61">
+        <v>19314</v>
+      </c>
+      <c r="P61">
+        <v>12822</v>
+      </c>
+      <c r="Q61">
+        <v>-134</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>49517</v>
+      </c>
+      <c r="T61">
+        <v>7164</v>
+      </c>
+      <c r="U61">
+        <v>1424</v>
+      </c>
+      <c r="V61">
+        <v>678</v>
+      </c>
+      <c r="W61">
+        <v>-127</v>
+      </c>
+      <c r="X61">
+        <v>-477</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>3</v>
+      </c>
+      <c r="AA61">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>229</v>
+      </c>
+      <c r="D62">
+        <v>2986</v>
+      </c>
+      <c r="E62">
+        <v>1549</v>
+      </c>
+      <c r="F62">
+        <v>1408</v>
+      </c>
+      <c r="G62">
+        <v>5641</v>
+      </c>
+      <c r="H62">
+        <v>26046</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>10858</v>
+      </c>
+      <c r="K62">
+        <v>1451</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4529</v>
+      </c>
+      <c r="O62">
+        <v>18823</v>
+      </c>
+      <c r="P62">
+        <v>12809</v>
+      </c>
+      <c r="Q62">
+        <v>159</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>7223</v>
+      </c>
+      <c r="U62">
+        <v>1583</v>
+      </c>
+      <c r="V62">
+        <v>463</v>
+      </c>
+      <c r="W62">
+        <v>-140</v>
+      </c>
+      <c r="X62">
+        <v>-145</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>14</v>
+      </c>
+      <c r="AA62">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>338</v>
+      </c>
+      <c r="D63">
+        <v>3067</v>
+      </c>
+      <c r="E63">
+        <v>1885</v>
+      </c>
+      <c r="F63">
+        <v>1483</v>
+      </c>
+      <c r="G63">
+        <v>6612</v>
+      </c>
+      <c r="H63">
+        <v>26236</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>10864</v>
+      </c>
+      <c r="K63">
+        <v>1151</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4380</v>
+      </c>
+      <c r="O63">
+        <v>18570</v>
+      </c>
+      <c r="P63">
+        <v>12518</v>
+      </c>
+      <c r="Q63">
+        <v>113</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>7666</v>
+      </c>
+      <c r="U63">
+        <v>1696</v>
+      </c>
+      <c r="V63">
+        <v>557</v>
+      </c>
+      <c r="W63">
+        <v>-140</v>
+      </c>
+      <c r="X63">
+        <v>-431</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-4</v>
+      </c>
+      <c r="AA63">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>391</v>
+      </c>
+      <c r="D64">
+        <v>3198</v>
+      </c>
+      <c r="E64">
+        <v>1963</v>
+      </c>
+      <c r="F64">
+        <v>1547</v>
+      </c>
+      <c r="G64">
+        <v>6534</v>
+      </c>
+      <c r="H64">
+        <v>26016</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>10561</v>
+      </c>
+      <c r="K64">
+        <v>1351</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4219</v>
+      </c>
+      <c r="O64">
+        <v>17983</v>
+      </c>
+      <c r="P64">
+        <v>11931</v>
+      </c>
+      <c r="Q64">
+        <v>-10</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8033</v>
+      </c>
+      <c r="U64">
+        <v>1686</v>
+      </c>
+      <c r="V64">
+        <v>834</v>
+      </c>
+      <c r="W64">
+        <v>-141</v>
+      </c>
+      <c r="X64">
+        <v>-700</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>2</v>
+      </c>
+      <c r="AA64">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>3231</v>
+      </c>
+      <c r="E65">
+        <v>1957</v>
+      </c>
+      <c r="F65">
+        <v>1552</v>
+      </c>
+      <c r="G65">
+        <v>6365</v>
+      </c>
+      <c r="H65">
+        <v>25586</v>
+      </c>
+      <c r="I65">
+        <v>665</v>
+      </c>
+      <c r="J65">
+        <v>10550</v>
+      </c>
+      <c r="K65">
+        <v>200</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4400</v>
+      </c>
+      <c r="O65">
+        <v>17953</v>
+      </c>
+      <c r="P65">
+        <v>11569</v>
+      </c>
+      <c r="Q65">
+        <v>-145</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>50928</v>
+      </c>
+      <c r="T65">
+        <v>7633</v>
+      </c>
+      <c r="U65">
+        <v>1541</v>
+      </c>
+      <c r="V65">
+        <v>705</v>
+      </c>
+      <c r="W65">
+        <v>-141</v>
+      </c>
+      <c r="X65">
+        <v>-485</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-13</v>
+      </c>
+      <c r="AA65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>562</v>
+      </c>
+      <c r="D66">
+        <v>2922</v>
+      </c>
+      <c r="E66">
+        <v>1864</v>
+      </c>
+      <c r="F66">
+        <v>1452</v>
+      </c>
+      <c r="G66">
+        <v>5187</v>
+      </c>
+      <c r="H66">
+        <v>24318</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>9043</v>
+      </c>
+      <c r="K66">
+        <v>1974</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-2189</v>
+      </c>
+      <c r="N66">
+        <v>4570</v>
+      </c>
+      <c r="O66">
+        <v>16735</v>
+      </c>
+      <c r="P66">
+        <v>11017</v>
+      </c>
+      <c r="Q66">
+        <v>-622</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>7583</v>
+      </c>
+      <c r="U66">
+        <v>919</v>
+      </c>
+      <c r="V66">
+        <v>315</v>
+      </c>
+      <c r="W66">
+        <v>-156</v>
+      </c>
+      <c r="X66">
+        <v>-955</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>16</v>
+      </c>
+      <c r="AA66">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>343</v>
+      </c>
+      <c r="D67">
+        <v>2969</v>
+      </c>
+      <c r="E67">
+        <v>1924</v>
+      </c>
+      <c r="F67">
+        <v>1432</v>
+      </c>
+      <c r="G67">
+        <v>4891</v>
+      </c>
+      <c r="H67">
+        <v>24121</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>9082</v>
+      </c>
+      <c r="K67">
+        <v>1224</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4018</v>
+      </c>
+      <c r="O67">
+        <v>16158</v>
+      </c>
+      <c r="P67">
+        <v>10310</v>
+      </c>
+      <c r="Q67">
+        <v>-371</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7963</v>
+      </c>
+      <c r="U67">
+        <v>548</v>
+      </c>
+      <c r="V67">
+        <v>725</v>
+      </c>
+      <c r="W67">
+        <v>-156</v>
+      </c>
+      <c r="X67">
+        <v>-906</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>10</v>
+      </c>
+      <c r="AA67">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-132</v>
+      </c>
+      <c r="D68">
+        <v>3035</v>
+      </c>
+      <c r="E68">
+        <v>1784</v>
+      </c>
+      <c r="F68">
+        <v>1503</v>
+      </c>
+      <c r="G68">
+        <v>18213</v>
+      </c>
+      <c r="H68">
+        <v>37166</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>18563</v>
+      </c>
+      <c r="K68">
+        <v>453</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3273</v>
+      </c>
+      <c r="O68">
+        <v>24579</v>
+      </c>
+      <c r="P68">
+        <v>19016</v>
+      </c>
+      <c r="Q68">
+        <v>13303</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>12587</v>
+      </c>
+      <c r="U68">
+        <v>13852</v>
+      </c>
+      <c r="V68">
+        <v>384</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>13294</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-9</v>
+      </c>
+      <c r="AA68">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>327</v>
+      </c>
+      <c r="D69">
+        <v>3166</v>
+      </c>
+      <c r="E69">
+        <v>1744</v>
+      </c>
+      <c r="F69">
+        <v>1554</v>
+      </c>
+      <c r="G69">
+        <v>18633</v>
+      </c>
+      <c r="H69">
+        <v>37734</v>
+      </c>
+      <c r="I69">
+        <v>797</v>
+      </c>
+      <c r="J69">
+        <v>18667</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3342</v>
+      </c>
+      <c r="O69">
+        <v>24786</v>
+      </c>
+      <c r="P69">
+        <v>18870</v>
+      </c>
+      <c r="Q69">
+        <v>328</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>41933</v>
+      </c>
+      <c r="T69">
+        <v>12948</v>
+      </c>
+      <c r="U69">
+        <v>14179</v>
+      </c>
+      <c r="V69">
+        <v>1126</v>
+      </c>
+      <c r="W69">
+        <v>-199</v>
+      </c>
+      <c r="X69">
+        <v>-456</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-4</v>
+      </c>
+      <c r="AA69">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-136</v>
+      </c>
+      <c r="D70">
+        <v>3080</v>
+      </c>
+      <c r="E70">
+        <v>2000</v>
+      </c>
+      <c r="F70">
+        <v>1553</v>
+      </c>
+      <c r="G70">
+        <v>7542</v>
+      </c>
+      <c r="H70">
+        <v>55363</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>22095</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4896</v>
+      </c>
+      <c r="O70">
+        <v>34116</v>
+      </c>
+      <c r="P70">
+        <v>22798</v>
+      </c>
+      <c r="Q70">
+        <v>-12943</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>21247</v>
+      </c>
+      <c r="U70">
+        <v>1124</v>
+      </c>
+      <c r="V70">
+        <v>320</v>
+      </c>
+      <c r="W70">
+        <v>-210</v>
+      </c>
+      <c r="X70">
+        <v>1938</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-63</v>
+      </c>
+      <c r="AA70">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-12</v>
+      </c>
+      <c r="D71">
+        <v>4222</v>
+      </c>
+      <c r="E71">
+        <v>2293</v>
+      </c>
+      <c r="F71">
+        <v>2028</v>
+      </c>
+      <c r="G71">
+        <v>7512</v>
+      </c>
+      <c r="H71">
+        <v>54573</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>22589</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>4426</v>
+      </c>
+      <c r="O71">
+        <v>33421</v>
+      </c>
+      <c r="P71">
+        <v>22791</v>
+      </c>
+      <c r="Q71">
+        <v>181</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>21152</v>
+      </c>
+      <c r="U71">
+        <v>1251</v>
+      </c>
+      <c r="V71">
+        <v>697</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-373</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>70</v>
+      </c>
+      <c r="AA71">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>594</v>
+      </c>
+      <c r="D72">
+        <v>4278</v>
+      </c>
+      <c r="E72">
+        <v>2243</v>
+      </c>
+      <c r="F72">
+        <v>2072</v>
+      </c>
+      <c r="G72">
+        <v>7525</v>
+      </c>
+      <c r="H72">
+        <v>53977</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>20350</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>6107</v>
+      </c>
+      <c r="O72">
+        <v>32620</v>
+      </c>
+      <c r="P72">
+        <v>22250</v>
+      </c>
+      <c r="Q72">
+        <v>92</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>21357</v>
+      </c>
+      <c r="U72">
+        <v>1384</v>
+      </c>
+      <c r="V72">
+        <v>542</v>
+      </c>
+      <c r="W72">
+        <v>-238</v>
+      </c>
+      <c r="X72">
+        <v>-616</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>6</v>
+      </c>
+      <c r="AA72">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>-135</v>
+      </c>
+      <c r="D73">
+        <v>4402</v>
+      </c>
+      <c r="E73">
+        <v>2319</v>
+      </c>
+      <c r="F73">
+        <v>2151</v>
+      </c>
+      <c r="G73">
+        <v>7411</v>
+      </c>
+      <c r="H73">
+        <v>53904</v>
+      </c>
+      <c r="I73">
+        <v>1106</v>
+      </c>
+      <c r="J73">
+        <v>18894</v>
+      </c>
+      <c r="K73">
+        <v>710</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>7216</v>
+      </c>
+      <c r="O73">
+        <v>32910</v>
+      </c>
+      <c r="P73">
+        <v>21495</v>
+      </c>
+      <c r="Q73">
+        <v>-273</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>76032</v>
+      </c>
+      <c r="T73">
+        <v>20994</v>
+      </c>
+      <c r="U73">
+        <v>1140</v>
+      </c>
+      <c r="V73">
+        <v>1306</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-1007</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-13</v>
+      </c>
+      <c r="AA73">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>599</v>
+      </c>
+      <c r="D74">
+        <v>4160</v>
+      </c>
+      <c r="E74">
+        <v>2216</v>
+      </c>
+      <c r="F74">
+        <v>1973</v>
+      </c>
+      <c r="G74">
+        <v>6941</v>
+      </c>
+      <c r="H74">
+        <v>52932</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>17817</v>
+      </c>
+      <c r="K74">
+        <v>3254</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-453</v>
+      </c>
+      <c r="N74">
+        <v>7145</v>
+      </c>
+      <c r="O74">
+        <v>31528</v>
+      </c>
+      <c r="P74">
+        <v>21071</v>
+      </c>
+      <c r="Q74">
+        <v>-195</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>21404</v>
+      </c>
+      <c r="U74">
+        <v>943</v>
+      </c>
+      <c r="V74">
+        <v>245</v>
+      </c>
+      <c r="W74">
+        <v>-245</v>
+      </c>
+      <c r="X74">
+        <v>-734</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>4195</v>
+      </c>
+      <c r="E75">
+        <v>2279</v>
+      </c>
+      <c r="F75">
+        <v>1974</v>
+      </c>
+      <c r="G75">
+        <v>6844</v>
+      </c>
+      <c r="H75">
+        <v>52598</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>17556</v>
+      </c>
+      <c r="K75">
+        <v>3057</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>7108</v>
+      </c>
+      <c r="O75">
+        <v>31289</v>
+      </c>
+      <c r="P75">
+        <v>20613</v>
+      </c>
+      <c r="Q75">
+        <v>-274</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>21309</v>
+      </c>
+      <c r="U75">
+        <v>686</v>
+      </c>
+      <c r="V75">
+        <v>782</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-798</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>452</v>
+      </c>
+      <c r="D76">
+        <v>4350</v>
+      </c>
+      <c r="E76">
+        <v>2220</v>
+      </c>
+      <c r="F76">
+        <v>2074</v>
+      </c>
+      <c r="G76">
+        <v>6781</v>
+      </c>
+      <c r="H76">
+        <v>52233</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>18016</v>
+      </c>
+      <c r="K76">
+        <v>2168</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6237</v>
+      </c>
+      <c r="O76">
+        <v>30736</v>
+      </c>
+      <c r="P76">
+        <v>20184</v>
+      </c>
+      <c r="Q76">
+        <v>-173</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>21497</v>
+      </c>
+      <c r="U76">
+        <v>523</v>
+      </c>
+      <c r="V76">
+        <v>932</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-768</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>162</v>
+      </c>
+      <c r="D77">
+        <v>4584</v>
+      </c>
+      <c r="E77">
+        <v>2345</v>
+      </c>
+      <c r="F77">
+        <v>2266</v>
+      </c>
+      <c r="G77">
+        <v>6664</v>
+      </c>
+      <c r="H77">
+        <v>51765</v>
+      </c>
+      <c r="I77">
+        <v>1092</v>
+      </c>
+      <c r="J77">
+        <v>18081</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>5655</v>
+      </c>
+      <c r="O77">
+        <v>30684</v>
+      </c>
+      <c r="P77">
+        <v>19390</v>
+      </c>
+      <c r="Q77">
+        <v>-4</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>70093</v>
+      </c>
+      <c r="T77">
+        <v>21081</v>
+      </c>
+      <c r="U77">
+        <v>536</v>
+      </c>
+      <c r="V77">
+        <v>1371</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-923</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>278</v>
+      </c>
+      <c r="D78">
+        <v>4225</v>
+      </c>
+      <c r="E78">
+        <v>2074</v>
+      </c>
+      <c r="F78">
+        <v>1978</v>
+      </c>
+      <c r="G78">
+        <v>6438</v>
+      </c>
+      <c r="H78">
+        <v>51952</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>16949</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-303</v>
+      </c>
+      <c r="N78">
+        <v>6726</v>
+      </c>
+      <c r="O78">
+        <v>30750</v>
+      </c>
+      <c r="P78">
+        <v>19850</v>
+      </c>
+      <c r="Q78">
+        <v>19</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>21202</v>
+      </c>
+      <c r="U78">
+        <v>560</v>
+      </c>
+      <c r="V78">
+        <v>713</v>
+      </c>
+      <c r="W78">
+        <v>-252</v>
+      </c>
+      <c r="X78">
+        <v>-413</v>
+      </c>
+      <c r="Y78">
+        <v>340</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>183</v>
+      </c>
+      <c r="D79">
+        <v>4253</v>
+      </c>
+      <c r="E79">
+        <v>2160</v>
+      </c>
+      <c r="F79">
+        <v>1971</v>
+      </c>
+      <c r="G79">
+        <v>8555</v>
+      </c>
+      <c r="H79">
+        <v>53516</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>16809</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>8755</v>
+      </c>
+      <c r="O79">
+        <v>32565</v>
+      </c>
+      <c r="P79">
+        <v>21614</v>
+      </c>
+      <c r="Q79">
+        <v>1831</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>20951</v>
+      </c>
+      <c r="U79">
+        <v>2351</v>
+      </c>
+      <c r="V79">
+        <v>483</v>
+      </c>
+      <c r="W79">
+        <v>-253</v>
+      </c>
+      <c r="X79">
+        <v>1623</v>
+      </c>
+      <c r="Y79">
+        <v>345</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>285</v>
+      </c>
+      <c r="D80">
+        <v>3855</v>
+      </c>
+      <c r="E80">
+        <v>1993</v>
+      </c>
+      <c r="F80">
+        <v>1660</v>
+      </c>
+      <c r="G80">
+        <v>8828</v>
+      </c>
+      <c r="H80">
+        <v>53959</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>17090</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>6067</v>
+      </c>
+      <c r="O80">
+        <v>29937</v>
+      </c>
+      <c r="P80">
+        <v>19163</v>
+      </c>
+      <c r="Q80">
+        <v>525</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>24022</v>
+      </c>
+      <c r="U80">
+        <v>2882</v>
+      </c>
+      <c r="V80">
+        <v>862</v>
+      </c>
+      <c r="W80">
+        <v>-268</v>
+      </c>
+      <c r="X80">
+        <v>20</v>
+      </c>
+      <c r="Y80">
+        <v>339</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>128</v>
+      </c>
+      <c r="D81">
+        <v>4784</v>
+      </c>
+      <c r="E81">
+        <v>2398</v>
+      </c>
+      <c r="F81">
+        <v>2509</v>
+      </c>
+      <c r="G81">
+        <v>8969</v>
+      </c>
+      <c r="H81">
+        <v>54012</v>
+      </c>
+      <c r="I81">
+        <v>1355</v>
+      </c>
+      <c r="J81">
+        <v>17224</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5836</v>
+      </c>
+      <c r="O81">
+        <v>30247</v>
+      </c>
+      <c r="P81">
+        <v>18373</v>
+      </c>
+      <c r="Q81">
+        <v>-48</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>72000</v>
+      </c>
+      <c r="T81">
+        <v>23765</v>
+      </c>
+      <c r="U81">
+        <v>2825</v>
+      </c>
+      <c r="V81">
+        <v>1481</v>
+      </c>
+      <c r="W81">
+        <v>-253</v>
+      </c>
+      <c r="X81">
+        <v>-1208</v>
+      </c>
+      <c r="Y81">
+        <v>336</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>1003</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5315</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2370</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2766</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>9537</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>54748</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>16082</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-267</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>7021</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>30085</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>17819</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>530</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>24663</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3248</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1533</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-264</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-592</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>1003</v>
       </c>
     </row>
